--- a/data_excel/接口测试用例_ (9).xlsx
+++ b/data_excel/接口测试用例_ (9).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C60', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 01:57:46', 'ftime': '2019-09-29 01:57:46', 'context': '尊敬的客户您好，受重大活动影响，预计到货会有延迟，我们正在全力为您服务，敬请谅解;', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 12:23:35', 'ftime': '2019-09-28 12:23:35', 'context': '快件在【安阳市区一部】做了派件', 'location': ''}, {'time': '2019-09-28 12:23:35', 'ftime': '2019-09-28 12:23:35', 'context': '快件已到达【安阳市区一部】', 'location': ''}, {'time': '2019-09-28 12:23:35', 'ftime': '2019-09-28 12:23:35', 'context': ' 所有货物（共6件）在【安阳市区一部】做了派件;', 'location': ''}, {'time': '2019-09-28 06:25:25', 'ftime': '2019-09-28 06:25:25', 'context': '快件由【郑州分拨】发往【安阳市区一部】', 'location': ''}, {'time': '2019-09-27 06:49:15', 'ftime': '2019-09-27 06:49:15', 'context': '快件已到达【郑州分拨】', 'location': ''}, {'time': '2019-09-25 22:41:55', 'ftime': '2019-09-25 22:41:55', 'context': '快件由【东莞分拨】发往【郑州分拨】', 'location': ''}, {'time': '2019-09-25 22:26:45', 'ftime': '2019-09-25 22:26:45', 'context': '快件已到达【东莞分拨】', 'location': ''}, {'time': '2019-09-25 09:53:25', 'ftime': '2019-09-25 09:53:25', 'context': '快件由【玉林分拨】发往【东莞分拨】', 'location': ''}, {'time': '2019-09-24 22:12:45', 'ftime': '2019-09-24 22:12:45', 'context': '快件已到达【玉林分拨】', 'location': ''}, {'time': '2019-09-24 20:37:35', 'ftime': '2019-09-24 20:37:35', 'context': '快件由【玉林玉州一部】发往【玉林分拨】', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.072459</v>
+        <v>0.073546</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.010319</v>
+        <v>0.007511</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 09:42:59', 'context': '查无结果', 'ftime': '2019-09-24 09:42:59'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 10:07:16', 'context': '查无结果', 'ftime': '2019-09-25 10:07:16'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.063926</v>
+        <v>0.06995700000000001</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.010771</v>
+        <v>0.009925</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:05:10', 'ftime': '2019-09-29 08:05:10', 'context': '货物已到达【Jh】四川凉山西昌交接点', 'location': '凉山彝族自治州'}, {'time': '2019-09-28 20:07:32', 'ftime': '2019-09-28 20:07:32', 'context': '运输中，离开【成都转运场】，下一站【【Jh】四川凉山西昌交接点】', 'location': '成都市'}, {'time': '2019-09-28 15:11:44', 'ftime': '2019-09-28 15:11:44', 'context': '货物已到达成都转运场', 'location': '成都市'}, {'time': '2019-09-27 06:50:36', 'ftime': '2019-09-27 06:50:36', 'context': '运输中，离开【东莞转运场】，下一站【成都转运场】', 'location': '东莞市'}, {'time': '2019-09-26 23:42:55', 'ftime': '2019-09-26 23:42:55', 'context': '货物已到达东莞转运场', 'location': '东莞市'}, {'time': '2019-09-26 21:56:34', 'ftime': '2019-09-26 21:56:34', 'context': '运输中，离开【东莞塘厦镇塘龙中路快递分部】，下一站【东莞转运场】', 'location': '东莞市'}, {'time': '2019-09-26 20:15:13', 'ftime': '2019-09-26 20:15:13', 'context': '您的订单已被收件员揽收,【东莞塘厦镇塘龙中路快递分部】库存中', 'location': '东莞市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-11 10:07:16', 'context': '查无结果', 'ftime': '2019-09-11 10:07:16'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.071218</v>
+        <v>0.063136</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.010375</v>
+        <v>0.009268999999999999</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 20:25:06', 'ftime': '2019-09-27 20:25:06', 'context': '[福建晋江分拨中心]进行装车扫描，发往：四川成都分拨中心', 'location': '福建晋江分拨中心'}, {'time': '2019-09-27 07:46:10', 'ftime': '2019-09-27 07:46:10', 'context': '[福建晋江分拨中心]在分拨中心进行称重扫描', 'location': '福建晋江分拨中心'}, {'time': '2019-09-27 07:02:36', 'ftime': '2019-09-27 07:02:36', 'context': '[福建市场部台江服务部]进行下级地点扫描，发往：四川成都网点包', 'location': '福建市场部台江服务部'}, {'time': '2019-09-27 05:57:15', 'ftime': '2019-09-27 05:57:15', 'context': '[福建市场部台江服务部]进行揽件扫描', 'location': '福建市场部台江服务部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:30:09', 'ftime': '2019-09-28 20:30:09', 'context': '[吉林长春分拨中心]从站点发出，本次转运目的地：吉林梅河口市公司', 'location': '吉林长春分拨中心'}, {'time': '2019-09-28 20:27:35', 'ftime': '2019-09-28 20:27:35', 'context': '[吉林长春分拨中心]在分拨中心进行称重扫描', 'location': '吉林长春分拨中心'}, {'time': '2019-09-28 11:16:12', 'ftime': '2019-09-28 11:16:12', 'context': '[吉林长春南关区光复路公司科技城便民服务]进行揽件扫描', 'location': '吉林长春南关区光复路公司科技城便民服务'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.07069</v>
+        <v>0.073474</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010242</v>
+        <v>0.010892</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-10-23 12:40:42', 'ftime': '2018-10-23 12:40:42', 'context': '[重庆市]重庆市【綦江县】，妈妈驿站桥河店 已签收', 'location': None}, {'time': '2018-10-23 10:38:44', 'ftime': '2018-10-23 10:38:44', 'context': '[重庆市]重庆市【綦江县】，【王冲/17383006547】正在派件', 'location': None}, {'time': '2018-10-23 08:53:56', 'ftime': '2018-10-23 08:53:56', 'context': '[重庆市]到重庆市【綦江县】', 'location': None}, {'time': '2018-10-22 21:46:09', 'ftime': '2018-10-22 21:46:09', 'context': '[重庆市]重庆市【重庆转运中心】，正发往【綦江县】', 'location': None}, {'time': '2018-10-22 21:37:43', 'ftime': '2018-10-22 21:37:43', 'context': '[重庆市]到重庆市【重庆转运中心】', 'location': None}, {'time': '2018-10-22 18:54:02', 'ftime': '2018-10-22 18:54:02', 'context': '[重庆市]重庆市【龙头寺分部】，正发往【重庆转运中心】', 'location': None}, {'time': '2018-10-22 18:36:06', 'ftime': '2018-10-22 18:36:06', 'context': '[重庆市]到重庆市【龙头寺分部】', 'location': None}, {'time': '2018-10-22 10:52:13', 'ftime': '2018-10-22 10:52:13', 'context': '[重庆市]重庆市【龙头寺分部004】，【尹红/15696268676】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-28 22:05:38', 'ftime': '2019-09-28 22:05:38', 'context': '南京市 离开【国际大宗收寄中心】,下一站【南京国际】', 'location': '国际大宗收寄中心'}, {'time': '2019-09-28 17:54:13', 'ftime': '2019-09-28 17:54:13', 'context': '南京市 【国际大宗收寄中心】已收件,揽投员:杨峰', 'location': '国际大宗收寄中心'}, {'time': '2019-09-27 00:35:02', 'ftime': '2019-09-27 00:35:02', 'context': '物流订单已创建(WISH邮平台)', 'location': 'null'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.073284</v>
+        <v>0.073894</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.01332</v>
+        <v>0.009743999999999999</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 20:34:26', 'ftime': '2019-09-27 20:34:26', 'context': '【大连市】 快件已经到达 【大连】', 'location': ''}, {'time': '2019-09-27 16:56:57', 'ftime': '2019-09-27 16:56:57', 'context': '【大连市】 快件离开 【大连中山四部】 已发往 【大连】', 'location': ''}, {'time': '2019-09-27 16:52:54', 'ftime': '2019-09-27 16:52:54', 'context': '【大连市】 【大连中山四部】（15942878172） 的 许晶13841131240（13252981170） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-11 15:02:36', 'ftime': '2018-11-11 15:02:36', 'context': '订单已由物业代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-11 14:00:20', 'ftime': '2018-11-11 14:00:20', 'context': '配送员开始配送，请您准备收货，配送员，龙杰，手机号，15328048305', 'location': None}, {'time': '2018-11-11 13:42:08', 'ftime': '2018-11-11 13:42:08', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-11 07:53:37', 'ftime': '2018-11-11 07:53:37', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-11 07:53:32', 'ftime': '2018-11-11 07:53:32', 'context': '货物已交付京东物流', 'location': None}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.078003</v>
+        <v>0.071279</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.011028</v>
+        <v>0.015139</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 19:56:46', 'ftime': '2019-09-27 19:56:46', 'context': '【大连市】 快件已经到达 【大连】', 'location': ''}, {'time': '2019-09-26 03:57:32', 'ftime': '2019-09-26 03:57:32', 'context': '【嘉兴市】 快件离开 【杭州中转部】 已发往 【大连】', 'location': ''}, {'time': '2019-09-26 03:49:15', 'ftime': '2019-09-26 03:49:15', 'context': '【嘉兴市】 快件已经到达 【杭州中转部】', 'location': ''}, {'time': '2019-09-25 22:58:38', 'ftime': '2019-09-25 22:58:38', 'context': '【嘉兴市】 快件离开 【嘉兴中转部】 已发往 【杭州中转部】', 'location': ''}, {'time': '2019-09-25 22:56:44', 'ftime': '2019-09-25 22:56:44', 'context': '【嘉兴市】 快件已经到达 【嘉兴中转部】', 'location': ''}, {'time': '2019-09-25 21:36:23', 'ftime': '2019-09-25 21:36:23', 'context': '【嘉兴市】 快件离开 【平湖】 已发往 【大连】', 'location': ''}, {'time': '2019-09-25 20:39:52', 'ftime': '2019-09-25 20:39:52', 'context': '【嘉兴市】 【平湖】（0573-85095087、0573-85086225） 的 杨象勇（13567352049） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-23 19:21:41', 'ftime': '2019-09-23 19:21:41', 'context': '[黑龙江大庆公司]快件已被 拍照 签收', 'location': '黑龙江大庆公司'}, {'time': '2019-09-23 18:49:11', 'ftime': '2019-09-23 18:49:11', 'context': '[黑龙江大庆公司]进行派件扫描；派送业务员：曹利林；联系电话：15561898541', 'location': '黑龙江大庆公司'}, {'time': '2019-09-23 15:01:21', 'ftime': '2019-09-23 15:01:21', 'context': '[黑龙江哈尔滨分拨中心]从站点发出，本次转运目的地：黑龙江大庆公司', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-23 10:55:59', 'ftime': '2019-09-23 10:55:59', 'context': '[黑龙江哈尔滨分拨中心]在分拨中心进行称重扫描', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-21 04:50:39', 'ftime': '2019-09-21 04:50:39', 'context': '[广东广州分拨中心]进行装车扫描，发往：黑龙江哈尔滨分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-20 22:50:55', 'ftime': '2019-09-20 22:50:55', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-20 07:13:32', 'ftime': '2019-09-20 07:13:32', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：黑龙江哈尔滨分拨中心', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-20 01:43:33', 'ftime': '2019-09-20 01:43:33', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.112007</v>
+        <v>0.068213</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.011513</v>
+        <v>0.009394</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:36:46', 'ftime': '2019-09-29 09:36:46', 'context': '快件已到达鹰潭月湖点部', 'location': ''}, {'time': '2019-09-28 23:18:03', 'ftime': '2019-09-28 23:18:03', 'context': '快件已从经开中转场交接至跨越专车，准备送往鹰潭月湖点部', 'location': ''}, {'time': '2019-09-28 13:29:08', 'ftime': '2019-09-28 13:29:08', 'context': '快件已到达经开，准备送往经开分拨中心', 'location': ''}, {'time': '2019-09-28 01:52:18', 'ftime': '2019-09-28 01:52:18', 'context': '快件预装跨越包机，准备送往鹰潭市', 'location': ''}, {'time': '2019-09-28 00:50:24', 'ftime': '2019-09-28 00:50:24', 'context': '快件已到达江东中转场正在分拣！', 'location': ''}, {'time': '2019-09-27 20:31:56', 'ftime': '2019-09-27 20:31:56', 'context': '快件已从客户处交接至跨越专车，准备送往江东中转场', 'location': ''}, {'time': '2019-09-27 20:22:49', 'ftime': '2019-09-27 20:22:49', 'context': '快件已由滨江浦沿点部揽件完毕！', 'location': ''}, {'time': '2019-09-27 15:57:39', 'ftime': '2019-09-27 15:57:39', 'context': '取货员已到客户处，待揽件！', 'location': ''}, {'time': '2019-09-27 15:57:37', 'ftime': '2019-09-27 15:57:37', 'context': '司机正前往客户处取货', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-19 20:49:31', 'ftime': '2019-09-19 20:49:31', 'context': '[广东惠州江北公司小金乌石分部]【惠州市】快件已被 本人 签收。如有问题请电联业务员：陈晓飞【18665273690】。相逢是缘,如果您对我的服务感到满意,给个五星好不好？【请在评价小件员处给予五星好评】', 'location': '广东惠州江北公司小金乌石分部'}, {'time': '2019-09-19 16:59:53', 'ftime': '2019-09-19 16:59:53', 'context': '[广东惠州江北公司小金乌石分部]【惠州市】广东惠州江北公司小金乌石分部 派件员 陈晓飞 18665273690 正在为您派件', 'location': '广东惠州江北公司小金乌石分部'}, {'time': '2019-09-19 15:58:59', 'ftime': '2019-09-19 15:58:59', 'context': '[广东惠州江北公司小金乌石分部]【惠州市】已到达 广东惠州江北公司小金乌石分部 ；马上为您派送', 'location': '广东惠州江北公司小金乌石分部'}, {'time': '2019-09-19 14:18:32', 'ftime': '2019-09-19 14:18:32', 'context': '[广东惠州江北公司]【惠州市】已离开 广东惠州江北公司；发往 广东惠州江北公司小金乌石分部', 'location': '广东惠州江北公司'}, {'time': '2019-09-19 09:30:30', 'ftime': '2019-09-19 09:30:30', 'context': '[广东东莞分拨中心]【东莞市】已离开 广东东莞分拨中心；发往 广东惠州江北公司小金乌石分部', 'location': '广东东莞分拨中心'}, {'time': '2019-09-19 09:22:19', 'ftime': '2019-09-19 09:22:19', 'context': '[广东东莞分拨中心]【东莞市】已到达 广东东莞分拨中心', 'location': '广东东莞分拨中心'}, {'time': '2019-09-19 05:54:31', 'ftime': '2019-09-19 05:54:31', 'context': '[广东广州分拨中心]【广州市】已离开 广东广州分拨中心；发往 广东东莞分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-19 05:51:56', 'ftime': '2019-09-19 05:51:56', 'context': '[广东广州分拨中心]【广州市】已到达 广东广州分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-19 01:32:31', 'ftime': '2019-09-19 01:32:31', 'context': '[广东广州增城市新塘公司]【广州市】已离开 广东广州增城市新塘公司；发往 广东惠州分拨点', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-18 21:11:59', 'ftime': '2019-09-18 21:11:59', 'context': '[广东广州增城市新塘公司]【广州市】广东广州增城市新塘公司 已揽收', 'location': '广东广州增城市新塘公司'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.074243</v>
+        <v>0.07642</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.011747</v>
+        <v>0.009853000000000001</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 18:33:57', 'ftime': '2019-09-28 18:33:57', 'context': '【2019-09-28 18:33:57】快件已到达【南通分拨中心】', 'location': '南通市'}, {'time': '2019-09-26 22:33:09', 'ftime': '2019-09-26 22:33:09', 'context': '【2019-09-26 22:33:09】快件在【虎门分拨中心】正发往【南通分拨中心】', 'location': '东莞市'}, {'time': '2019-09-26 12:35:30', 'ftime': '2019-09-26 12:35:30', 'context': '【2019-09-26 12:35:30】快件在【虎门分拨中心】留仓,查件电话【0769-33556750】', 'location': '东莞市'}, {'time': '2019-09-26 03:23:24', 'ftime': '2019-09-26 03:23:24', 'context': '【2019-09-26 03:23:24】快件已到达【虎门分拨中心】', 'location': '东莞市'}, {'time': '2019-09-25 22:11:30', 'ftime': '2019-09-25 22:11:30', 'context': '【2019-09-25 22:11:30】快件在【广州黄埔分拨中心】正发往【虎门分拨中心】', 'location': '广州市'}, {'time': '2019-09-25 21:36:41', 'ftime': '2019-09-25 21:36:41', 'context': '【2019-09-25 21:36:41】快件已到达【广州黄埔分拨中心】', 'location': '广州市'}, {'time': '2019-09-25 20:45:26', 'ftime': '2019-09-25 20:45:26', 'context': '【2019-09-25 20:45:26】快件在【广州新塘新墩】正发往【广州黄埔分拨中心】', 'location': '广州市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:23:45', 'ftime': '2019-09-28 20:23:45', 'context': '货物已完成分拣，离开【郑州外单分拨中心】', 'location': ''}, {'time': '2019-09-28 16:07:49', 'ftime': '2019-09-28 16:07:49', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-28 16:07:49', 'ftime': '2019-09-28 16:07:49', 'context': '配送员常德强已经揽收完成', 'location': ''}, {'time': '2019-09-28 13:54:58', 'ftime': '2019-09-28 13:54:58', 'context': '揽收任务已分配给常德强,配送员电话15560122101', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.084146</v>
+        <v>0.073742</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.019451</v>
+        <v>0.009011</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (9).xlsx
+++ b/data_excel/接口测试用例_ (9).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 12:23:35', 'ftime': '2019-09-28 12:23:35', 'context': '快件在【安阳市区一部】做了派件', 'location': ''}, {'time': '2019-09-28 12:23:35', 'ftime': '2019-09-28 12:23:35', 'context': '快件已到达【安阳市区一部】', 'location': ''}, {'time': '2019-09-28 12:23:35', 'ftime': '2019-09-28 12:23:35', 'context': ' 所有货物（共6件）在【安阳市区一部】做了派件;', 'location': ''}, {'time': '2019-09-28 06:25:25', 'ftime': '2019-09-28 06:25:25', 'context': '快件由【郑州分拨】发往【安阳市区一部】', 'location': ''}, {'time': '2019-09-27 06:49:15', 'ftime': '2019-09-27 06:49:15', 'context': '快件已到达【郑州分拨】', 'location': ''}, {'time': '2019-09-25 22:41:55', 'ftime': '2019-09-25 22:41:55', 'context': '快件由【东莞分拨】发往【郑州分拨】', 'location': ''}, {'time': '2019-09-25 22:26:45', 'ftime': '2019-09-25 22:26:45', 'context': '快件已到达【东莞分拨】', 'location': ''}, {'time': '2019-09-25 09:53:25', 'ftime': '2019-09-25 09:53:25', 'context': '快件由【玉林分拨】发往【东莞分拨】', 'location': ''}, {'time': '2019-09-24 22:12:45', 'ftime': '2019-09-24 22:12:45', 'context': '快件已到达【玉林分拨】', 'location': ''}, {'time': '2019-09-24 20:37:35', 'ftime': '2019-09-24 20:37:35', 'context': '快件由【玉林玉州一部】发往【玉林分拨】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 23:06:12', 'ftime': '2019-09-28 23:06:12', 'context': '【长春市】 快件离开 【长春中转】 已发往 【南昌中转部】', 'location': ''}, {'time': '2019-09-28 23:04:13', 'ftime': '2019-09-28 23:04:13', 'context': '【长春市】 快件已经到达 【长春中转】', 'location': ''}, {'time': '2019-09-28 16:19:25', 'ftime': '2019-09-28 16:19:25', 'context': '【延边朝鲜族自治州】 【延吉河北八部】（0433-8026161） 的 宫晓红（13321447977） 已揽收', 'location': ''}, {'time': '2019-09-28 15:47:53', 'ftime': '2019-09-28 15:47:53', 'context': '【延边朝鲜族自治州】 快件离开 【延吉】 已发往 【赣州中转部】', 'location': ''}, {'time': '2019-09-28 15:29:17', 'ftime': '2019-09-28 15:29:17', 'context': '【延边朝鲜族自治州】 快件已经到达 【延吉】', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.073546</v>
+        <v>0.083082</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.007511</v>
+        <v>0.012453</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 10:07:16', 'context': '查无结果', 'ftime': '2019-09-25 10:07:16'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 17:53:22', 'ftime': '2019-09-28 17:53:22', 'context': '【银川市】 快件离开 【银川中转部】 已发往 【银川西夏北京路】', 'location': ''}, {'time': '2019-09-28 14:21:34', 'ftime': '2019-09-28 14:21:34', 'context': '【银川市】 快件已经到达 【银川中转部】', 'location': ''}, {'time': '2019-09-27 20:11:34', 'ftime': '2019-09-27 20:11:34', 'context': '【太原市】 快件离开 【太原中转】 已发往 【银川中转部】', 'location': ''}, {'time': '2019-09-27 04:41:09', 'ftime': '2019-09-27 04:41:09', 'context': '【太原市】 快件已经到达 【太原中转】', 'location': ''}, {'time': '2019-09-25 19:50:36', 'ftime': '2019-09-25 19:50:36', 'context': '【长春市】 快件离开 【长春中转】 已发往 【太原中转】', 'location': ''}, {'time': '2019-09-25 19:48:28', 'ftime': '2019-09-25 19:48:28', 'context': '【长春市】 快件已经到达 【长春中转】', 'location': ''}, {'time': '2019-09-25 17:25:29', 'ftime': '2019-09-25 17:25:29', 'context': '【长春市】 快件离开 【长春庆丰路分部】 已发往 【长春中转】', 'location': ''}, {'time': '2019-09-25 16:16:50', 'ftime': '2019-09-25 16:16:50', 'context': '【长春市】 【长春庆丰路分部】（0431-84334348） 的 王冰（18186862656） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.06995700000000001</v>
+        <v>0.07208000000000001</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009925</v>
+        <v>0.009985000000000001</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-11 10:07:16', 'context': '查无结果', 'ftime': '2019-09-11 10:07:16'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-13 15:41:13', 'ftime': '2018-11-13 15:41:13', 'context': '[洛阳市]洛阳市【洛宁】，涧口乡《百世快递》 已签收', 'location': None}, {'time': '2018-11-13 11:21:38', 'ftime': '2018-11-13 11:21:38', 'context': '[洛阳市]洛阳市【洛宁】，【涧口乡/18623769227】正在派件', 'location': None}, {'time': '2018-11-13 11:20:38', 'ftime': '2018-11-13 11:20:38', 'context': '[洛阳市]到洛阳市【洛宁】', 'location': None}, {'time': '2018-11-13 02:05:12', 'ftime': '2018-11-13 02:05:12', 'context': '[洛阳市]洛阳市【洛阳集散中心】，正发往【洛宁】', 'location': None}, {'time': '2018-11-13 00:13:41', 'ftime': '2018-11-13 00:13:41', 'context': '[洛阳市]到洛阳市【洛阳集散中心】', 'location': None}, {'time': '2018-11-11 20:44:08', 'ftime': '2018-11-11 20:44:08', 'context': '[金华市]金华市【义乌转运中心】，正发往【洛阳集散中心】', 'location': None}, {'time': '2018-11-11 19:54:04', 'ftime': '2018-11-11 19:54:04', 'context': '[金华市]到金华市【义乌转运中心】', 'location': None}, {'time': '2018-11-11 16:36:45', 'ftime': '2018-11-11 16:36:45', 'context': '[金华市]到金华市【义乌青口一分部集货点】', 'location': None}, {'time': '2018-11-11 16:23:52', 'ftime': '2018-11-11 16:23:52', 'context': '[金华市]金华市【义乌国际商贸城二分部-优质客户】，【季嘉豪/17757950139】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.063136</v>
+        <v>0.073714</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009268999999999999</v>
+        <v>0.009547999999999999</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:30:09', 'ftime': '2019-09-28 20:30:09', 'context': '[吉林长春分拨中心]从站点发出，本次转运目的地：吉林梅河口市公司', 'location': '吉林长春分拨中心'}, {'time': '2019-09-28 20:27:35', 'ftime': '2019-09-28 20:27:35', 'context': '[吉林长春分拨中心]在分拨中心进行称重扫描', 'location': '吉林长春分拨中心'}, {'time': '2019-09-28 11:16:12', 'ftime': '2019-09-28 11:16:12', 'context': '[吉林长春南关区光复路公司科技城便民服务]进行揽件扫描', 'location': '吉林长春南关区光复路公司科技城便民服务'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 14:15:27', 'ftime': '2019-09-28 14:15:27', 'context': '【泉州市】 快件离开 【泉州中转部】 已发往 【龙岩永定】', 'location': ''}, {'time': '2019-09-28 14:13:47', 'ftime': '2019-09-28 14:13:47', 'context': '【泉州市】 快件已经到达 【泉州中转部】', 'location': ''}, {'time': '2019-09-27 17:23:17', 'ftime': '2019-09-27 17:23:17', 'context': '【南通市】 快件离开 【海门三星一部】 已发往 【泉州中转部】', 'location': ''}, {'time': '2019-09-26 18:55:25', 'ftime': '2019-09-26 18:55:25', 'context': '【南通市】 快件离开 【海门三星一部05】 已发往 【南通中转部】', 'location': ''}, {'time': '2019-09-26 18:52:46', 'ftime': '2019-09-26 18:52:46', 'context': '【南通市】 【海门三星一部05】（15206285985） 的 主账号（15370667067） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.073474</v>
+        <v>0.074213</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010892</v>
+        <v>0.013072</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-28 22:05:38', 'ftime': '2019-09-28 22:05:38', 'context': '南京市 离开【国际大宗收寄中心】,下一站【南京国际】', 'location': '国际大宗收寄中心'}, {'time': '2019-09-28 17:54:13', 'ftime': '2019-09-28 17:54:13', 'context': '南京市 【国际大宗收寄中心】已收件,揽投员:杨峰', 'location': '国际大宗收寄中心'}, {'time': '2019-09-27 00:35:02', 'ftime': '2019-09-27 00:35:02', 'context': '物流订单已创建(WISH邮平台)', 'location': 'null'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 00:09:01', 'ftime': '2019-09-29 00:09:01', 'context': '[广东深圳公司中心分拨分部]进行揽件扫描', 'location': '广东深圳公司中心分拨分部'}, {'time': '2019-09-28 19:50:02', 'ftime': '2019-09-28 19:50:02', 'context': '[广东深圳公司南山区滨海腾讯分部]进行揽件扫描', 'location': '广东深圳公司南山区滨海腾讯分部'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.073894</v>
+        <v>0.072718</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.009743999999999999</v>
+        <v>0.010354</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-11 15:02:36', 'ftime': '2018-11-11 15:02:36', 'context': '订单已由物业代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-11 14:00:20', 'ftime': '2018-11-11 14:00:20', 'context': '配送员开始配送，请您准备收货，配送员，龙杰，手机号，15328048305', 'location': None}, {'time': '2018-11-11 13:42:08', 'ftime': '2018-11-11 13:42:08', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-11 07:53:37', 'ftime': '2018-11-11 07:53:37', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-11 07:53:32', 'ftime': '2018-11-11 07:53:32', 'context': '货物已交付京东物流', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 10:22:20', 'context': '查无结果', 'ftime': '2019-09-09 10:22:20'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.071279</v>
+        <v>0.067005</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.015139</v>
+        <v>0.009988</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-23 19:21:41', 'ftime': '2019-09-23 19:21:41', 'context': '[黑龙江大庆公司]快件已被 拍照 签收', 'location': '黑龙江大庆公司'}, {'time': '2019-09-23 18:49:11', 'ftime': '2019-09-23 18:49:11', 'context': '[黑龙江大庆公司]进行派件扫描；派送业务员：曹利林；联系电话：15561898541', 'location': '黑龙江大庆公司'}, {'time': '2019-09-23 15:01:21', 'ftime': '2019-09-23 15:01:21', 'context': '[黑龙江哈尔滨分拨中心]从站点发出，本次转运目的地：黑龙江大庆公司', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-23 10:55:59', 'ftime': '2019-09-23 10:55:59', 'context': '[黑龙江哈尔滨分拨中心]在分拨中心进行称重扫描', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-21 04:50:39', 'ftime': '2019-09-21 04:50:39', 'context': '[广东广州分拨中心]进行装车扫描，发往：黑龙江哈尔滨分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-20 22:50:55', 'ftime': '2019-09-20 22:50:55', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-20 07:13:32', 'ftime': '2019-09-20 07:13:32', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：黑龙江哈尔滨分拨中心', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-20 01:43:33', 'ftime': '2019-09-20 01:43:33', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 03:49:47', 'ftime': '2019-09-29 03:49:47', 'context': '[浙江杭州分拨中心]从站点发出，本次转运目的地：安徽黄山公司', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-29 03:45:58', 'ftime': '2019-09-29 03:45:58', 'context': '[浙江杭州分拨中心]在分拨中心进行卸车扫描', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-28 23:11:33', 'ftime': '2019-09-28 23:11:33', 'context': '[浙江义乌分拨中心]进行装车扫描，发往：浙江杭州分拨中心', 'location': '浙江义乌分拨中心'}, {'time': '2019-09-28 23:05:18', 'ftime': '2019-09-28 23:05:18', 'context': '[浙江义乌分拨中心]在分拨中心进行称重扫描', 'location': '浙江义乌分拨中心'}, {'time': '2019-09-28 20:18:41', 'ftime': '2019-09-28 20:18:41', 'context': '[浙江义乌新光公司]进行下级地点扫描，发往：安徽黄山公司', 'location': '浙江义乌新光公司'}, {'time': '2019-09-28 15:37:18', 'ftime': '2019-09-28 15:37:18', 'context': '[浙江义乌新光公司]进行揽件扫描', 'location': '浙江义乌新光公司'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.068213</v>
+        <v>0.074684</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.009394</v>
+        <v>0.010106</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-19 20:49:31', 'ftime': '2019-09-19 20:49:31', 'context': '[广东惠州江北公司小金乌石分部]【惠州市】快件已被 本人 签收。如有问题请电联业务员：陈晓飞【18665273690】。相逢是缘,如果您对我的服务感到满意,给个五星好不好？【请在评价小件员处给予五星好评】', 'location': '广东惠州江北公司小金乌石分部'}, {'time': '2019-09-19 16:59:53', 'ftime': '2019-09-19 16:59:53', 'context': '[广东惠州江北公司小金乌石分部]【惠州市】广东惠州江北公司小金乌石分部 派件员 陈晓飞 18665273690 正在为您派件', 'location': '广东惠州江北公司小金乌石分部'}, {'time': '2019-09-19 15:58:59', 'ftime': '2019-09-19 15:58:59', 'context': '[广东惠州江北公司小金乌石分部]【惠州市】已到达 广东惠州江北公司小金乌石分部 ；马上为您派送', 'location': '广东惠州江北公司小金乌石分部'}, {'time': '2019-09-19 14:18:32', 'ftime': '2019-09-19 14:18:32', 'context': '[广东惠州江北公司]【惠州市】已离开 广东惠州江北公司；发往 广东惠州江北公司小金乌石分部', 'location': '广东惠州江北公司'}, {'time': '2019-09-19 09:30:30', 'ftime': '2019-09-19 09:30:30', 'context': '[广东东莞分拨中心]【东莞市】已离开 广东东莞分拨中心；发往 广东惠州江北公司小金乌石分部', 'location': '广东东莞分拨中心'}, {'time': '2019-09-19 09:22:19', 'ftime': '2019-09-19 09:22:19', 'context': '[广东东莞分拨中心]【东莞市】已到达 广东东莞分拨中心', 'location': '广东东莞分拨中心'}, {'time': '2019-09-19 05:54:31', 'ftime': '2019-09-19 05:54:31', 'context': '[广东广州分拨中心]【广州市】已离开 广东广州分拨中心；发往 广东东莞分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-19 05:51:56', 'ftime': '2019-09-19 05:51:56', 'context': '[广东广州分拨中心]【广州市】已到达 广东广州分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-19 01:32:31', 'ftime': '2019-09-19 01:32:31', 'context': '[广东广州增城市新塘公司]【广州市】已离开 广东广州增城市新塘公司；发往 广东惠州分拨点', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-18 21:11:59', 'ftime': '2019-09-18 21:11:59', 'context': '[广东广州增城市新塘公司]【广州市】广东广州增城市新塘公司 已揽收', 'location': '广东广州增城市新塘公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-20 10:22:20', 'context': '查无结果', 'ftime': '2019-09-20 10:22:20'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.07642</v>
+        <v>0.067303</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.009853000000000001</v>
+        <v>0.009604</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:23:45', 'ftime': '2019-09-28 20:23:45', 'context': '货物已完成分拣，离开【郑州外单分拨中心】', 'location': ''}, {'time': '2019-09-28 16:07:49', 'ftime': '2019-09-28 16:07:49', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-28 16:07:49', 'ftime': '2019-09-28 16:07:49', 'context': '配送员常德强已经揽收完成', 'location': ''}, {'time': '2019-09-28 13:54:58', 'ftime': '2019-09-28 13:54:58', 'context': '揽收任务已分配给常德强,配送员电话15560122101', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 10:22:20', 'context': '查无结果', 'ftime': '2019-09-27 10:22:20'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.073742</v>
+        <v>0.06804399999999999</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009011</v>
+        <v>0.009747</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (9).xlsx
+++ b/data_excel/接口测试用例_ (9).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 23:06:12', 'ftime': '2019-09-28 23:06:12', 'context': '【长春市】 快件离开 【长春中转】 已发往 【南昌中转部】', 'location': ''}, {'time': '2019-09-28 23:04:13', 'ftime': '2019-09-28 23:04:13', 'context': '【长春市】 快件已经到达 【长春中转】', 'location': ''}, {'time': '2019-09-28 16:19:25', 'ftime': '2019-09-28 16:19:25', 'context': '【延边朝鲜族自治州】 【延吉河北八部】（0433-8026161） 的 宫晓红（13321447977） 已揽收', 'location': ''}, {'time': '2019-09-28 15:47:53', 'ftime': '2019-09-28 15:47:53', 'context': '【延边朝鲜族自治州】 快件离开 【延吉】 已发往 【赣州中转部】', 'location': ''}, {'time': '2019-09-28 15:29:17', 'ftime': '2019-09-28 15:29:17', 'context': '【延边朝鲜族自治州】 快件已经到达 【延吉】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-28 10:28:30', 'context': '查无结果', 'ftime': '2019-09-28 10:28:30'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.083082</v>
+        <v>0.068136</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.012453</v>
+        <v>0.009586000000000001</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 17:53:22', 'ftime': '2019-09-28 17:53:22', 'context': '【银川市】 快件离开 【银川中转部】 已发往 【银川西夏北京路】', 'location': ''}, {'time': '2019-09-28 14:21:34', 'ftime': '2019-09-28 14:21:34', 'context': '【银川市】 快件已经到达 【银川中转部】', 'location': ''}, {'time': '2019-09-27 20:11:34', 'ftime': '2019-09-27 20:11:34', 'context': '【太原市】 快件离开 【太原中转】 已发往 【银川中转部】', 'location': ''}, {'time': '2019-09-27 04:41:09', 'ftime': '2019-09-27 04:41:09', 'context': '【太原市】 快件已经到达 【太原中转】', 'location': ''}, {'time': '2019-09-25 19:50:36', 'ftime': '2019-09-25 19:50:36', 'context': '【长春市】 快件离开 【长春中转】 已发往 【太原中转】', 'location': ''}, {'time': '2019-09-25 19:48:28', 'ftime': '2019-09-25 19:48:28', 'context': '【长春市】 快件已经到达 【长春中转】', 'location': ''}, {'time': '2019-09-25 17:25:29', 'ftime': '2019-09-25 17:25:29', 'context': '【长春市】 快件离开 【长春庆丰路分部】 已发往 【长春中转】', 'location': ''}, {'time': '2019-09-25 16:16:50', 'ftime': '2019-09-25 16:16:50', 'context': '【长春市】 【长春庆丰路分部】（0431-84334348） 的 王冰（18186862656） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-13 10:28:30', 'context': '查无结果', 'ftime': '2019-09-13 10:28:30'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.07208000000000001</v>
+        <v>0.06320199999999999</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009985000000000001</v>
+        <v>0.014571</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-13 15:41:13', 'ftime': '2018-11-13 15:41:13', 'context': '[洛阳市]洛阳市【洛宁】，涧口乡《百世快递》 已签收', 'location': None}, {'time': '2018-11-13 11:21:38', 'ftime': '2018-11-13 11:21:38', 'context': '[洛阳市]洛阳市【洛宁】，【涧口乡/18623769227】正在派件', 'location': None}, {'time': '2018-11-13 11:20:38', 'ftime': '2018-11-13 11:20:38', 'context': '[洛阳市]到洛阳市【洛宁】', 'location': None}, {'time': '2018-11-13 02:05:12', 'ftime': '2018-11-13 02:05:12', 'context': '[洛阳市]洛阳市【洛阳集散中心】，正发往【洛宁】', 'location': None}, {'time': '2018-11-13 00:13:41', 'ftime': '2018-11-13 00:13:41', 'context': '[洛阳市]到洛阳市【洛阳集散中心】', 'location': None}, {'time': '2018-11-11 20:44:08', 'ftime': '2018-11-11 20:44:08', 'context': '[金华市]金华市【义乌转运中心】，正发往【洛阳集散中心】', 'location': None}, {'time': '2018-11-11 19:54:04', 'ftime': '2018-11-11 19:54:04', 'context': '[金华市]到金华市【义乌转运中心】', 'location': None}, {'time': '2018-11-11 16:36:45', 'ftime': '2018-11-11 16:36:45', 'context': '[金华市]到金华市【义乌青口一分部集货点】', 'location': None}, {'time': '2018-11-11 16:23:52', 'ftime': '2018-11-11 16:23:52', 'context': '[金华市]金华市【义乌国际商贸城二分部-优质客户】，【季嘉豪/17757950139】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-28 15:30:23', 'ftime': '2019-09-28 15:30:23', 'context': '[通化市]通化市【通化市集安市】，【于堂/0435-6183883】正在派件', 'location': None}, {'time': '2019-09-28 13:27:38', 'ftime': '2019-09-28 13:27:38', 'context': '[通化市]到通化市【通化市集安市】', 'location': None}, {'time': '2019-09-28 08:49:46', 'ftime': '2019-09-28 08:49:46', 'context': '[通化市]通化市【通化市东昌区一部】，正发往【通化市集安市】', 'location': None}, {'time': '2019-09-28 08:48:26', 'ftime': '2019-09-28 08:48:26', 'context': '[通化市]到通化市【通化市东昌区一部】', 'location': None}, {'time': '2019-09-27 22:25:24', 'ftime': '2019-09-27 22:25:24', 'context': '[长春市]长春市【长春转运中心】，正发往【通化市东昌区一部】', 'location': None}, {'time': '2019-09-26 01:39:50', 'ftime': '2019-09-26 01:39:50', 'context': '[长沙市]长沙市【长沙转运中心】，正发往【长春转运中心】', 'location': None}, {'time': '2019-09-26 01:36:56', 'ftime': '2019-09-26 01:36:56', 'context': '[长沙市]到长沙市【长沙转运中心】', 'location': None}, {'time': '2019-09-25 21:18:07', 'ftime': '2019-09-25 21:18:07', 'context': '[娄底市]娄底市【娄底市区六部集货点】，正发往【长沙转运中心】', 'location': None}, {'time': '2019-09-25 20:46:32', 'ftime': '2019-09-25 20:46:32', 'context': '[娄底市]到娄底市【娄底市区六部集货点】', 'location': None}, {'time': '2019-09-25 18:12:14', 'ftime': '2019-09-25 18:12:14', 'context': '[娄底市]娄底市【冷水江】，【冷江站/13397582628】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.073714</v>
+        <v>0.071647</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009547999999999999</v>
+        <v>0.010658</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 14:15:27', 'ftime': '2019-09-28 14:15:27', 'context': '【泉州市】 快件离开 【泉州中转部】 已发往 【龙岩永定】', 'location': ''}, {'time': '2019-09-28 14:13:47', 'ftime': '2019-09-28 14:13:47', 'context': '【泉州市】 快件已经到达 【泉州中转部】', 'location': ''}, {'time': '2019-09-27 17:23:17', 'ftime': '2019-09-27 17:23:17', 'context': '【南通市】 快件离开 【海门三星一部】 已发往 【泉州中转部】', 'location': ''}, {'time': '2019-09-26 18:55:25', 'ftime': '2019-09-26 18:55:25', 'context': '【南通市】 快件离开 【海门三星一部05】 已发往 【南通中转部】', 'location': ''}, {'time': '2019-09-26 18:52:46', 'ftime': '2019-09-26 18:52:46', 'context': '【南通市】 【海门三星一部05】（15206285985） 的 主账号（15370667067） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-26 17:38:48', 'ftime': '2019-09-26 17:38:48', 'context': '[四川成都金堂县公司]快件已被 成都金海岸六栋店 代签收如有问题请联系李培国【18782016290】。', 'location': '四川成都金堂县公司'}, {'time': '2019-09-26 14:46:24', 'ftime': '2019-09-26 14:46:24', 'context': '[四川成都金堂县公司]进行派件扫描；派送业务员：李培国；联系电话：18782016290', 'location': '四川成都金堂县公司'}, {'time': '2019-09-26 10:56:42', 'ftime': '2019-09-26 10:56:42', 'context': '[四川成都分拨中心]从站点发出，本次转运目的地：四川成都金堂县公司', 'location': '四川成都分拨中心'}, {'time': '2019-09-26 10:51:57', 'ftime': '2019-09-26 10:51:57', 'context': '[四川成都分拨中心]在分拨中心进行卸车扫描', 'location': '四川成都分拨中心'}, {'time': '2019-09-25 19:16:56', 'ftime': '2019-09-25 19:16:56', 'context': '[陕西西安分拨中心]进行装车扫描，发往：四川成都分拨中心', 'location': '陕西西安分拨中心'}, {'time': '2019-09-25 19:12:43', 'ftime': '2019-09-25 19:12:43', 'context': '[陕西西安分拨中心]在分拨中心进行卸车扫描', 'location': '陕西西安分拨中心'}, {'time': '2019-09-24 19:05:52', 'ftime': '2019-09-24 19:05:52', 'context': '[宁夏银川分拨中心]进行装车扫描，发往：陕西西安分拨中心', 'location': '宁夏银川分拨中心'}, {'time': '2019-09-24 17:35:11', 'ftime': '2019-09-24 17:35:11', 'context': '[宁夏银川公司]进行揽件扫描', 'location': '宁夏银川公司'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.074213</v>
+        <v>0.06782100000000001</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.013072</v>
+        <v>0.010026</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 00:09:01', 'ftime': '2019-09-29 00:09:01', 'context': '[广东深圳公司中心分拨分部]进行揽件扫描', 'location': '广东深圳公司中心分拨分部'}, {'time': '2019-09-28 19:50:02', 'ftime': '2019-09-28 19:50:02', 'context': '[广东深圳公司南山区滨海腾讯分部]进行揽件扫描', 'location': '广东深圳公司南山区滨海腾讯分部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 10:28:30', 'context': '查无结果', 'ftime': '2019-09-29 10:28:30'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.072718</v>
+        <v>0.066786</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010354</v>
+        <v>0.009365999999999999</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 10:22:20', 'context': '查无结果', 'ftime': '2019-09-09 10:22:20'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 17:46:04', 'ftime': '2019-09-28 17:46:04', 'context': '【鹤壁市】 快件已由【快宝的牟山一区递管家】代签收, 如有问题请电联（18539230060 / 18939291160）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-09-28 15:51:47', 'ftime': '2019-09-28 15:51:47', 'context': '【鹤壁市】 【鹤壁】 的郭瑞（18539230060） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-28 14:31:00', 'ftime': '2019-09-28 14:31:00', 'context': '【鹤壁市】 快件已经到达 【鹤壁】', 'location': ''}, {'time': '2019-09-28 04:51:39', 'ftime': '2019-09-28 04:51:39', 'context': '【新乡市】 快件离开 【新乡中转】 已发往 【鹤壁】', 'location': ''}, {'time': '2019-09-28 00:37:53', 'ftime': '2019-09-28 00:37:53', 'context': '【新乡市】 快件已经到达 【新乡中转】', 'location': ''}, {'time': '2019-09-26 22:43:47', 'ftime': '2019-09-26 22:43:47', 'context': '【郑州市】 快件离开 【郑州中转】 已发往 【新乡中转】', 'location': ''}, {'time': '2019-09-26 22:24:05', 'ftime': '2019-09-26 22:24:05', 'context': '【郑州市】 快件已经到达 【郑州中转】', 'location': ''}, {'time': '2019-09-26 16:37:56', 'ftime': '2019-09-26 16:37:56', 'context': '【安阳市】 快件离开 【内黄县】 已发往 【新乡中转】', 'location': ''}, {'time': '2019-09-26 16:22:41', 'ftime': '2019-09-26 16:22:41', 'context': '【安阳市】 【内黄县】（15537297806、18238505963） 的 卜城（15037357625） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.067005</v>
+        <v>0.073605</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009988</v>
+        <v>0.02095</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 03:49:47', 'ftime': '2019-09-29 03:49:47', 'context': '[浙江杭州分拨中心]从站点发出，本次转运目的地：安徽黄山公司', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-29 03:45:58', 'ftime': '2019-09-29 03:45:58', 'context': '[浙江杭州分拨中心]在分拨中心进行卸车扫描', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-28 23:11:33', 'ftime': '2019-09-28 23:11:33', 'context': '[浙江义乌分拨中心]进行装车扫描，发往：浙江杭州分拨中心', 'location': '浙江义乌分拨中心'}, {'time': '2019-09-28 23:05:18', 'ftime': '2019-09-28 23:05:18', 'context': '[浙江义乌分拨中心]在分拨中心进行称重扫描', 'location': '浙江义乌分拨中心'}, {'time': '2019-09-28 20:18:41', 'ftime': '2019-09-28 20:18:41', 'context': '[浙江义乌新光公司]进行下级地点扫描，发往：安徽黄山公司', 'location': '浙江义乌新光公司'}, {'time': '2019-09-28 15:37:18', 'ftime': '2019-09-28 15:37:18', 'context': '[浙江义乌新光公司]进行揽件扫描', 'location': '浙江义乌新光公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-26 18:01:56', 'ftime': '2019-09-26 18:01:56', 'context': '[广东广州白云区嘉禾公司百花岭分部]快件已被 已签收 签收', 'location': '广东广州白云区嘉禾公司百花岭分部'}, {'time': '2019-09-26 15:44:46', 'ftime': '2019-09-26 15:44:46', 'context': '[广东广州白云区嘉禾公司百花岭分部]进行派件扫描；派送业务员：马英飞；联系电话：13503088483', 'location': '广东广州白云区嘉禾公司百花岭分部'}, {'time': '2019-09-26 10:40:23', 'ftime': '2019-09-26 10:40:23', 'context': '[广东广州白云区嘉禾公司]进行快件扫描，发往：广东广州白云区嘉禾公司百花岭分部', 'location': '广东广州白云区嘉禾公司'}, {'time': '2019-09-26 07:58:33', 'ftime': '2019-09-26 07:58:33', 'context': '[广东广州分拨中心]从站点发出，本次转运目的地：广东广州白云区嘉禾公司', 'location': '广东广州分拨中心'}, {'time': '2019-09-26 07:51:44', 'ftime': '2019-09-26 07:51:44', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-26 04:29:45', 'ftime': '2019-09-26 04:29:45', 'context': '[广东广州白云区瑶台公司瑶台便利店分部]进行下级地点扫描，发往：广东广州网点包', 'location': '广东广州白云区瑶台公司瑶台便利店分部'}, {'time': '2019-09-26 04:17:39', 'ftime': '2019-09-26 04:17:39', 'context': '[广东广州白云区瑶台公司瑶台便利店分部]进行揽件扫描', 'location': '广东广州白云区瑶台公司瑶台便利店分部'}, {'time': '2019-09-25 16:22:18', 'ftime': '2019-09-25 16:22:18', 'context': '到达：【广州口岸】包裹清关中', 'location': ''}, {'time': '2019-09-25 13:14:50', 'ftime': '2019-09-25 13:14:50', 'context': '到达：【中国-广州】国际干线运输已到达【广州口岸】', 'location': ''}, {'time': '2019-09-25 10:02:20', 'ftime': '2019-09-25 10:02:20', 'context': '到达：【中国-香港】，国际干线运输已从【香港口岸】启程，航（班）次号：FW904', 'location': ''}, {'time': '2019-09-25 08:47:12', 'ftime': '2019-09-25 08:47:12', 'context': '【香港-新界】包裹已从【新界海外仓】出库，等待干线运输', 'location': ''}, {'time': '2019-09-25 02:51:09', 'ftime': '2019-09-25 02:51:09', 'context': '【香港-新界】包裹已到达【新界海外仓】', 'location': ''}, {'time': '2019-09-25 01:12:39', 'ftime': '2019-09-25 01:12:39', 'context': '[香港海港韵达公司树韵服务部]进行揽件扫描', 'location': '香港海港韵达公司树韵服务部'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.074684</v>
+        <v>0.069427</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010106</v>
+        <v>0.00966</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-20 10:22:20', 'context': '查无结果', 'ftime': '2019-09-20 10:22:20'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 00:46:48', 'ftime': '2019-09-28 00:46:48', 'context': '货物已完成分拣，离开【泉州外单分拣中心】', 'location': ''}, {'time': '2019-09-27 22:52:01', 'ftime': '2019-09-27 22:52:01', 'context': '货物已到达【泉州外单分拣中心】', 'location': ''}, {'time': '2019-09-27 20:27:34', 'ftime': '2019-09-27 20:27:34', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 20:27:34', 'ftime': '2019-09-27 20:27:34', 'context': '配送员吕孔军已经揽收完成', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.067303</v>
+        <v>0.067567</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.009604</v>
+        <v>0.010323</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 10:22:20', 'context': '查无结果', 'ftime': '2019-09-27 10:22:20'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 10:28:31', 'context': '查无结果', 'ftime': '2019-09-03 10:28:31'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.06804399999999999</v>
+        <v>0.06683500000000001</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009747</v>
+        <v>0.009783</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (9).xlsx
+++ b/data_excel/接口测试用例_ (9).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-28 10:28:30', 'context': '查无结果', 'ftime': '2019-09-28 10:28:30'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 16:10:59', 'context': '查无结果', 'ftime': '2019-09-05 16:10:59'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.068136</v>
+        <v>0.06804200000000001</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009586000000000001</v>
+        <v>0.011133</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-13 10:28:30', 'context': '查无结果', 'ftime': '2019-09-13 10:28:30'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:09:20', 'ftime': '2019-09-29 08:09:20', 'context': '到达【广州市中西区中山六路（流花）】', 'location': '广州市中西区中山六路（流花）'}, {'time': '2019-09-29 06:16:10', 'ftime': '2019-09-29 06:16:10', 'context': '离开【广州机北】,下一站【广州市中西区中山六路（流花）】', 'location': '广州机北'}, {'time': '2019-09-29 02:54:01', 'ftime': '2019-09-29 02:54:01', 'context': '到达【广州机北】', 'location': '广州机北'}, {'time': '2019-09-28 21:52:46', 'ftime': '2019-09-28 21:52:46', 'context': '离开【茂名转运】,下一站【广州机北】', 'location': '茂名转运'}, {'time': '2019-09-28 20:39:38', 'ftime': '2019-09-28 20:39:38', 'context': '到达【茂名转运】', 'location': '茂名转运'}, {'time': '2019-09-28 18:54:39', 'ftime': '2019-09-28 18:54:39', 'context': '离开【高州市高州市揽投部】,下一站【茂名处理】', 'location': '高州市高州市揽投部'}, {'time': '2019-09-28 16:13:59', 'ftime': '2019-09-28 16:13:59', 'context': '茂名市 【高州市高州市揽投部】已收件,揽投员:李剑兴,电话:13288999364', 'location': '高州市高州市揽投部'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.06320199999999999</v>
+        <v>0.069061</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.014571</v>
+        <v>0.008151</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-28 15:30:23', 'ftime': '2019-09-28 15:30:23', 'context': '[通化市]通化市【通化市集安市】，【于堂/0435-6183883】正在派件', 'location': None}, {'time': '2019-09-28 13:27:38', 'ftime': '2019-09-28 13:27:38', 'context': '[通化市]到通化市【通化市集安市】', 'location': None}, {'time': '2019-09-28 08:49:46', 'ftime': '2019-09-28 08:49:46', 'context': '[通化市]通化市【通化市东昌区一部】，正发往【通化市集安市】', 'location': None}, {'time': '2019-09-28 08:48:26', 'ftime': '2019-09-28 08:48:26', 'context': '[通化市]到通化市【通化市东昌区一部】', 'location': None}, {'time': '2019-09-27 22:25:24', 'ftime': '2019-09-27 22:25:24', 'context': '[长春市]长春市【长春转运中心】，正发往【通化市东昌区一部】', 'location': None}, {'time': '2019-09-26 01:39:50', 'ftime': '2019-09-26 01:39:50', 'context': '[长沙市]长沙市【长沙转运中心】，正发往【长春转运中心】', 'location': None}, {'time': '2019-09-26 01:36:56', 'ftime': '2019-09-26 01:36:56', 'context': '[长沙市]到长沙市【长沙转运中心】', 'location': None}, {'time': '2019-09-25 21:18:07', 'ftime': '2019-09-25 21:18:07', 'context': '[娄底市]娄底市【娄底市区六部集货点】，正发往【长沙转运中心】', 'location': None}, {'time': '2019-09-25 20:46:32', 'ftime': '2019-09-25 20:46:32', 'context': '[娄底市]到娄底市【娄底市区六部集货点】', 'location': None}, {'time': '2019-09-25 18:12:14', 'ftime': '2019-09-25 18:12:14', 'context': '[娄底市]娄底市【冷水江】，【冷江站/13397582628】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-21 09:50:20', 'ftime': '2019-09-21 09:50:20', 'context': '订单已由快递到车代签，感谢您在京东购物，欢迎您再次光临！', 'location': ''}, {'time': '2019-09-21 08:48:07', 'ftime': '2019-09-21 08:48:07', 'context': '配送员开始配送，请您准备收货，配送员，王兵，手机号，19822620151', 'location': ''}, {'time': '2019-09-21 08:28:10', 'ftime': '2019-09-21 08:28:10', 'context': '配送员开始配送，请您准备收货，配送员，王兵，手机号，19822620151', 'location': ''}, {'time': '2019-09-21 07:27:11', 'ftime': '2019-09-21 07:27:11', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-21 04:17:42', 'ftime': '2019-09-21 04:17:42', 'context': '货物已完成分拣，离开【南京分拨中心】', 'location': ''}, {'time': '2019-09-21 00:53:22', 'ftime': '2019-09-21 00:53:22', 'context': '货物已到达【南京分拨中心】', 'location': ''}, {'time': '2019-09-20 23:48:45', 'ftime': '2019-09-20 23:48:45', 'context': '货物已交付京东物流', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.071647</v>
+        <v>0.07049800000000001</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.010658</v>
+        <v>0.009090000000000001</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-26 17:38:48', 'ftime': '2019-09-26 17:38:48', 'context': '[四川成都金堂县公司]快件已被 成都金海岸六栋店 代签收如有问题请联系李培国【18782016290】。', 'location': '四川成都金堂县公司'}, {'time': '2019-09-26 14:46:24', 'ftime': '2019-09-26 14:46:24', 'context': '[四川成都金堂县公司]进行派件扫描；派送业务员：李培国；联系电话：18782016290', 'location': '四川成都金堂县公司'}, {'time': '2019-09-26 10:56:42', 'ftime': '2019-09-26 10:56:42', 'context': '[四川成都分拨中心]从站点发出，本次转运目的地：四川成都金堂县公司', 'location': '四川成都分拨中心'}, {'time': '2019-09-26 10:51:57', 'ftime': '2019-09-26 10:51:57', 'context': '[四川成都分拨中心]在分拨中心进行卸车扫描', 'location': '四川成都分拨中心'}, {'time': '2019-09-25 19:16:56', 'ftime': '2019-09-25 19:16:56', 'context': '[陕西西安分拨中心]进行装车扫描，发往：四川成都分拨中心', 'location': '陕西西安分拨中心'}, {'time': '2019-09-25 19:12:43', 'ftime': '2019-09-25 19:12:43', 'context': '[陕西西安分拨中心]在分拨中心进行卸车扫描', 'location': '陕西西安分拨中心'}, {'time': '2019-09-24 19:05:52', 'ftime': '2019-09-24 19:05:52', 'context': '[宁夏银川分拨中心]进行装车扫描，发往：陕西西安分拨中心', 'location': '宁夏银川分拨中心'}, {'time': '2019-09-24 17:35:11', 'ftime': '2019-09-24 17:35:11', 'context': '[宁夏银川公司]进行揽件扫描', 'location': '宁夏银川公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-23 15:06:30', 'ftime': '2019-09-23 15:06:30', 'context': '客户签收人: 本人 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：13350949751，投诉电话：17309020357', 'location': ''}, {'time': '2019-09-23 09:08:21', 'ftime': '2019-09-23 09:08:21', 'context': '【四川省绵阳市科创区创业园分部公司】 派件中 派件人: 蒋辉棋 电话 13350949751 如有疑问，请联系：17309020357', 'location': ''}, {'time': '2019-09-23 07:32:26', 'ftime': '2019-09-23 07:32:26', 'context': '【四川省绵阳市科创区创业园分部公司】 已收入', 'location': ''}, {'time': '2019-09-22 14:41:02', 'ftime': '2019-09-22 14:41:02', 'context': '【四川省绵阳市】 已发出 下一站 【四川省绵阳市科创区创业园分部】', 'location': ''}, {'time': '2019-09-22 14:38:39', 'ftime': '2019-09-22 14:38:39', 'context': '【四川省绵阳市公司】 已收入', 'location': ''}, {'time': '2019-09-22 05:12:05', 'ftime': '2019-09-22 05:12:05', 'context': '【自贡转运中心】 已发出 下一站 【四川省绵阳市】', 'location': ''}, {'time': '2019-09-22 05:00:16', 'ftime': '2019-09-22 05:00:16', 'context': '【自贡转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-21 02:37:47', 'ftime': '2019-09-21 02:37:47', 'context': '【广州转运中心】 已发出 下一站 【自贡转运中心】', 'location': ''}, {'time': '2019-09-21 02:34:23', 'ftime': '2019-09-21 02:34:23', 'context': '【广州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-20 23:42:15', 'ftime': '2019-09-20 23:42:15', 'context': '【广东省广州市白云区新龙归】 已发出 下一站 【广州转运中心】', 'location': ''}, {'time': '2019-09-20 23:06:59', 'ftime': '2019-09-20 23:06:59', 'context': '【广东省广州市白云区新龙归公司】 已打包', 'location': ''}, {'time': '2019-09-20 22:20:25', 'ftime': '2019-09-20 22:20:25', 'context': '【广东省广州市白云区新龙归公司】 已收件 取件人: 雷超 (18933911460)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.06782100000000001</v>
+        <v>0.07138899999999999</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010026</v>
+        <v>0.011884</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 10:28:30', 'context': '查无结果', 'ftime': '2019-09-29 10:28:30'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-02 16:10:59', 'context': '查无结果', 'ftime': '2019-09-02 16:10:59'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.066786</v>
+        <v>0.068645</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.009365999999999999</v>
+        <v>0.009240999999999999</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 17:46:04', 'ftime': '2019-09-28 17:46:04', 'context': '【鹤壁市】 快件已由【快宝的牟山一区递管家】代签收, 如有问题请电联（18539230060 / 18939291160）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-09-28 15:51:47', 'ftime': '2019-09-28 15:51:47', 'context': '【鹤壁市】 【鹤壁】 的郭瑞（18539230060） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-28 14:31:00', 'ftime': '2019-09-28 14:31:00', 'context': '【鹤壁市】 快件已经到达 【鹤壁】', 'location': ''}, {'time': '2019-09-28 04:51:39', 'ftime': '2019-09-28 04:51:39', 'context': '【新乡市】 快件离开 【新乡中转】 已发往 【鹤壁】', 'location': ''}, {'time': '2019-09-28 00:37:53', 'ftime': '2019-09-28 00:37:53', 'context': '【新乡市】 快件已经到达 【新乡中转】', 'location': ''}, {'time': '2019-09-26 22:43:47', 'ftime': '2019-09-26 22:43:47', 'context': '【郑州市】 快件离开 【郑州中转】 已发往 【新乡中转】', 'location': ''}, {'time': '2019-09-26 22:24:05', 'ftime': '2019-09-26 22:24:05', 'context': '【郑州市】 快件已经到达 【郑州中转】', 'location': ''}, {'time': '2019-09-26 16:37:56', 'ftime': '2019-09-26 16:37:56', 'context': '【安阳市】 快件离开 【内黄县】 已发往 【新乡中转】', 'location': ''}, {'time': '2019-09-26 16:22:41', 'ftime': '2019-09-26 16:22:41', 'context': '【安阳市】 【内黄县】（15537297806、18238505963） 的 卜城（15037357625） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 20:50:03', 'ftime': '2019-09-27 20:50:03', 'context': '【2019-09-27 20:50:03】快件在【淮安分拨中心】正发往【徐州市西区S】', 'location': '淮安市'}, {'time': '2019-09-27 06:29:21', 'ftime': '2019-09-27 06:29:21', 'context': '【2019-09-27 06:29:21】快件已到达【淮安分拨中心】', 'location': '淮安市'}, {'time': '2019-09-26 23:28:03', 'ftime': '2019-09-26 23:28:03', 'context': '【2019-09-26 23:28:03】快件在【合肥分拨中心】正发往【淮安分拨中心】', 'location': '合肥市'}, {'time': '2019-09-26 21:55:07', 'ftime': '2019-09-26 21:55:07', 'context': '【2019-09-26 21:55:07】快件已到达【合肥分拨中心】', 'location': '合肥市'}, {'time': '2019-09-26 18:53:49', 'ftime': '2019-09-26 18:53:49', 'context': '【2019-09-26 18:53:49】快件在【长丰县水家湖】正发往【合肥分拨中心】', 'location': '合肥市'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.073605</v>
+        <v>0.080028</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.02095</v>
+        <v>0.009689</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-26 18:01:56', 'ftime': '2019-09-26 18:01:56', 'context': '[广东广州白云区嘉禾公司百花岭分部]快件已被 已签收 签收', 'location': '广东广州白云区嘉禾公司百花岭分部'}, {'time': '2019-09-26 15:44:46', 'ftime': '2019-09-26 15:44:46', 'context': '[广东广州白云区嘉禾公司百花岭分部]进行派件扫描；派送业务员：马英飞；联系电话：13503088483', 'location': '广东广州白云区嘉禾公司百花岭分部'}, {'time': '2019-09-26 10:40:23', 'ftime': '2019-09-26 10:40:23', 'context': '[广东广州白云区嘉禾公司]进行快件扫描，发往：广东广州白云区嘉禾公司百花岭分部', 'location': '广东广州白云区嘉禾公司'}, {'time': '2019-09-26 07:58:33', 'ftime': '2019-09-26 07:58:33', 'context': '[广东广州分拨中心]从站点发出，本次转运目的地：广东广州白云区嘉禾公司', 'location': '广东广州分拨中心'}, {'time': '2019-09-26 07:51:44', 'ftime': '2019-09-26 07:51:44', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-26 04:29:45', 'ftime': '2019-09-26 04:29:45', 'context': '[广东广州白云区瑶台公司瑶台便利店分部]进行下级地点扫描，发往：广东广州网点包', 'location': '广东广州白云区瑶台公司瑶台便利店分部'}, {'time': '2019-09-26 04:17:39', 'ftime': '2019-09-26 04:17:39', 'context': '[广东广州白云区瑶台公司瑶台便利店分部]进行揽件扫描', 'location': '广东广州白云区瑶台公司瑶台便利店分部'}, {'time': '2019-09-25 16:22:18', 'ftime': '2019-09-25 16:22:18', 'context': '到达：【广州口岸】包裹清关中', 'location': ''}, {'time': '2019-09-25 13:14:50', 'ftime': '2019-09-25 13:14:50', 'context': '到达：【中国-广州】国际干线运输已到达【广州口岸】', 'location': ''}, {'time': '2019-09-25 10:02:20', 'ftime': '2019-09-25 10:02:20', 'context': '到达：【中国-香港】，国际干线运输已从【香港口岸】启程，航（班）次号：FW904', 'location': ''}, {'time': '2019-09-25 08:47:12', 'ftime': '2019-09-25 08:47:12', 'context': '【香港-新界】包裹已从【新界海外仓】出库，等待干线运输', 'location': ''}, {'time': '2019-09-25 02:51:09', 'ftime': '2019-09-25 02:51:09', 'context': '【香港-新界】包裹已到达【新界海外仓】', 'location': ''}, {'time': '2019-09-25 01:12:39', 'ftime': '2019-09-25 01:12:39', 'context': '[香港海港韵达公司树韵服务部]进行揽件扫描', 'location': '香港海港韵达公司树韵服务部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 15:22:41', 'ftime': '2019-09-29 15:22:41', 'context': '到达【平阳鳌江】', 'location': '平阳鳌江'}, {'time': '2019-09-29 14:40:48', 'ftime': '2019-09-29 14:40:48', 'context': '离开【平阳分拨中心】,下一站【平阳鳌江】', 'location': '平阳分拨中心'}, {'time': '2019-09-29 07:59:04', 'ftime': '2019-09-29 07:59:04', 'context': '到达【温州市邮件处理中心】', 'location': '温州市邮件处理中心'}, {'time': '2019-09-29 07:00:16', 'ftime': '2019-09-29 07:00:16', 'context': '离开【南航集散】,下一站【温州市邮件处理中心】（经转）', 'location': '南航集散'}, {'time': '2019-09-29 02:18:46', 'ftime': '2019-09-29 02:18:46', 'context': '到达【南航集散】（经转）', 'location': '南航集散'}, {'time': '2019-09-29 00:21:21', 'ftime': '2019-09-29 00:21:21', 'context': '离开【广东航空邮件处理中心】,下一站【南航集散】', 'location': '广东航空邮件处理中心'}, {'time': '2019-09-28 19:03:01', 'ftime': '2019-09-28 19:03:01', 'context': '到达【广东航空邮件处理中心】', 'location': '广东航空邮件处理中心'}, {'time': '2019-09-28 18:44:11', 'ftime': '2019-09-28 18:44:11', 'context': '离开【广州市番禺区市桥】,下一站【广州航站】', 'location': '广州市番禺区市桥'}, {'time': '2019-09-28 15:24:41', 'ftime': '2019-09-28 15:24:41', 'context': '广州市 【广州市番禺区市桥】已收件,揽投员:吴华谦,电话:15902012860', 'location': '广州市番禺区市桥'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.069427</v>
+        <v>0.071085</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.00966</v>
+        <v>0.009417999999999999</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 00:46:48', 'ftime': '2019-09-28 00:46:48', 'context': '货物已完成分拣，离开【泉州外单分拣中心】', 'location': ''}, {'time': '2019-09-27 22:52:01', 'ftime': '2019-09-27 22:52:01', 'context': '货物已到达【泉州外单分拣中心】', 'location': ''}, {'time': '2019-09-27 20:27:34', 'ftime': '2019-09-27 20:27:34', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 20:27:34', 'ftime': '2019-09-27 20:27:34', 'context': '配送员吕孔军已经揽收完成', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': 'false', 'condition': 'sorder', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 14:24:42', 'ftime': '2019-09-29 14:24:42', 'context': '已下单【该信息由快递100提供】', 'location': None}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.067567</v>
+        <v>0.073397</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.010323</v>
+        <v>0.009559</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 10:28:31', 'context': '查无结果', 'ftime': '2019-09-03 10:28:31'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 14:17:58', 'ftime': '2019-09-28 14:17:58', 'context': '离开【分转中心】,下一站【宣城峄山所】', 'location': None}, {'time': '2019-09-28 11:04:02', 'ftime': '2019-09-28 11:04:02', 'context': '到达【分转中心】', 'location': None}, {'time': '2019-09-28 07:29:03', 'ftime': '2019-09-28 07:29:03', 'context': '离开【合肥中心】,下一站【分转中心】（经转）', 'location': None}, {'time': '2019-09-26 04:50:01', 'ftime': '2019-09-26 04:50:01', 'context': '到达【合肥中心】（经转）', 'location': None}, {'time': '2019-09-25 21:25:39', 'ftime': '2019-09-25 21:25:39', 'context': '离开【上海中心局邮件处理中心】,下一站【合肥中心】（经转）', 'location': None}, {'time': '2019-09-24 18:49:24', 'ftime': '2019-09-24 18:49:24', 'context': '到达【上海中心局邮件处理中心】（经转）', 'location': None}, {'time': '2019-09-24 18:40:06', 'ftime': '2019-09-24 18:40:06', 'context': '离开【邮政黄浦区中国建设银行卡中心邮政服务处】,下一站【上海王港】', 'location': None}, {'time': '2019-09-24 13:56:55', 'ftime': '2019-09-24 13:56:55', 'context': '【建行卡中心服务处】已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.06683500000000001</v>
+        <v>0.073486</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009783</v>
+        <v>0.010536</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (9).xlsx
+++ b/data_excel/接口测试用例_ (9).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -40,34 +40,6 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -127,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,6 +110,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -486,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -501,8 +487,9 @@
     <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
     <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.375" customWidth="1" style="4" min="9" max="11"/>
+    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="2">
@@ -543,20 +530,25 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -608,18 +600,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 16:10:59', 'context': '查无结果', 'ftime': '2019-09-05 16:10:59'}]}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.06804200000000001</v>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:27:46', 'ftime': '2019-10-08 06:27:46', 'context': '[河南郑州公司]进行快件扫描，发往：河南郑州公司客运南站分部', 'location': '河南郑州公司'}, {'time': '2019-10-08 02:45:09', 'ftime': '2019-10-08 02:45:09', 'context': '[河南郑州公司]到达目的地网点，快件很快进行派送', 'location': '河南郑州公司'}, {'time': '2019-10-08 02:34:30', 'ftime': '2019-10-08 02:34:30', 'context': '[河南郑州分拨中心]从站点发出，本次转运目的地：河南郑州公司', 'location': '河南郑州分拨中心'}, {'time': '2019-10-08 01:52:41', 'ftime': '2019-10-08 01:52:41', 'context': '[河南郑州分拨中心]在分拨中心进行卸车扫描', 'location': '河南郑州分拨中心'}, {'time': '2019-10-07 00:28:10', 'ftime': '2019-10-07 00:28:10', 'context': '[广东揭阳分拨中心]进行装车扫描，发往：河南郑州分拨中心', 'location': '广东揭阳分拨中心'}, {'time': '2019-10-07 00:21:10', 'ftime': '2019-10-07 00:21:10', 'context': '[广东揭阳分拨中心]在分拨中心进行称重扫描', 'location': '广东揭阳分拨中心'}, {'time': '2019-10-06 21:50:31', 'ftime': '2019-10-06 21:50:31', 'context': '[广东新汕头公司]进行发出扫描，发往：广东揭阳分拨中心', 'location': '广东新汕头公司'}, {'time': '2019-10-06 21:25:48', 'ftime': '2019-10-06 21:25:48', 'context': '[广东新汕头公司]进行下级地点扫描，发往：河南郑州公司', 'location': '广东新汕头公司'}, {'time': '2019-10-06 21:19:46', 'ftime': '2019-10-06 21:19:46', 'context': '[广东新汕头公司]进行揽件扫描', 'location': '广东新汕头公司'}]}</t>
+        </is>
       </c>
       <c r="J2" s="3" t="n">
+        <v>0.069246</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -669,22 +666,15 @@
       <c r="G3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.011133</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" ht="39.95" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -723,18 +713,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:09:20', 'ftime': '2019-09-29 08:09:20', 'context': '到达【广州市中西区中山六路（流花）】', 'location': '广州市中西区中山六路（流花）'}, {'time': '2019-09-29 06:16:10', 'ftime': '2019-09-29 06:16:10', 'context': '离开【广州机北】,下一站【广州市中西区中山六路（流花）】', 'location': '广州机北'}, {'time': '2019-09-29 02:54:01', 'ftime': '2019-09-29 02:54:01', 'context': '到达【广州机北】', 'location': '广州机北'}, {'time': '2019-09-28 21:52:46', 'ftime': '2019-09-28 21:52:46', 'context': '离开【茂名转运】,下一站【广州机北】', 'location': '茂名转运'}, {'time': '2019-09-28 20:39:38', 'ftime': '2019-09-28 20:39:38', 'context': '到达【茂名转运】', 'location': '茂名转运'}, {'time': '2019-09-28 18:54:39', 'ftime': '2019-09-28 18:54:39', 'context': '离开【高州市高州市揽投部】,下一站【茂名处理】', 'location': '高州市高州市揽投部'}, {'time': '2019-09-28 16:13:59', 'ftime': '2019-09-28 16:13:59', 'context': '茂名市 【高州市高州市揽投部】已收件,揽投员:李剑兴,电话:13288999364', 'location': '高州市高州市揽投部'}]}</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.069061</v>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 21:56:26', 'ftime': '2019-10-07 21:56:26', 'context': '离开【佛山市邮件处理中心】,下一站【江高中心】', 'location': ''}, {'time': '2019-10-07 06:04:22', 'ftime': '2019-10-07 06:04:22', 'context': '到达【佛山市邮件处理中心】', 'location': ''}, {'time': '2019-10-07 01:03:44', 'ftime': '2019-10-07 01:03:44', 'context': '离开【佛山市电商物流容桂网商】,下一站【佛山中心】', 'location': ''}, {'time': '2019-10-07 00:04:26', 'ftime': '2019-10-07 00:04:26', 'context': '佛山市 【佛山市电商物流容桂网商】已收件,揽投员:陈宏烨,电话:13798628844', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J4" s="3" t="n">
+        <v>0.079481</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -775,22 +770,15 @@
       <c r="G5" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.008151</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" ht="39.95" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -829,18 +817,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-21 09:50:20', 'ftime': '2019-09-21 09:50:20', 'context': '订单已由快递到车代签，感谢您在京东购物，欢迎您再次光临！', 'location': ''}, {'time': '2019-09-21 08:48:07', 'ftime': '2019-09-21 08:48:07', 'context': '配送员开始配送，请您准备收货，配送员，王兵，手机号，19822620151', 'location': ''}, {'time': '2019-09-21 08:28:10', 'ftime': '2019-09-21 08:28:10', 'context': '配送员开始配送，请您准备收货，配送员，王兵，手机号，19822620151', 'location': ''}, {'time': '2019-09-21 07:27:11', 'ftime': '2019-09-21 07:27:11', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-21 04:17:42', 'ftime': '2019-09-21 04:17:42', 'context': '货物已完成分拣，离开【南京分拨中心】', 'location': ''}, {'time': '2019-09-21 00:53:22', 'ftime': '2019-09-21 00:53:22', 'context': '货物已到达【南京分拨中心】', 'location': ''}, {'time': '2019-09-20 23:48:45', 'ftime': '2019-09-20 23:48:45', 'context': '货物已交付京东物流', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.07049800000000001</v>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-11 16:34:51', 'context': '查无结果', 'ftime': '2019-09-11 16:34:51'}]}</t>
+        </is>
       </c>
       <c r="J6" s="3" t="n">
+        <v>0.064401</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -881,22 +874,15 @@
       <c r="G7" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.009090000000000001</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8" ht="39.95" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -935,18 +921,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-23 15:06:30', 'ftime': '2019-09-23 15:06:30', 'context': '客户签收人: 本人 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：13350949751，投诉电话：17309020357', 'location': ''}, {'time': '2019-09-23 09:08:21', 'ftime': '2019-09-23 09:08:21', 'context': '【四川省绵阳市科创区创业园分部公司】 派件中 派件人: 蒋辉棋 电话 13350949751 如有疑问，请联系：17309020357', 'location': ''}, {'time': '2019-09-23 07:32:26', 'ftime': '2019-09-23 07:32:26', 'context': '【四川省绵阳市科创区创业园分部公司】 已收入', 'location': ''}, {'time': '2019-09-22 14:41:02', 'ftime': '2019-09-22 14:41:02', 'context': '【四川省绵阳市】 已发出 下一站 【四川省绵阳市科创区创业园分部】', 'location': ''}, {'time': '2019-09-22 14:38:39', 'ftime': '2019-09-22 14:38:39', 'context': '【四川省绵阳市公司】 已收入', 'location': ''}, {'time': '2019-09-22 05:12:05', 'ftime': '2019-09-22 05:12:05', 'context': '【自贡转运中心】 已发出 下一站 【四川省绵阳市】', 'location': ''}, {'time': '2019-09-22 05:00:16', 'ftime': '2019-09-22 05:00:16', 'context': '【自贡转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-21 02:37:47', 'ftime': '2019-09-21 02:37:47', 'context': '【广州转运中心】 已发出 下一站 【自贡转运中心】', 'location': ''}, {'time': '2019-09-21 02:34:23', 'ftime': '2019-09-21 02:34:23', 'context': '【广州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-20 23:42:15', 'ftime': '2019-09-20 23:42:15', 'context': '【广东省广州市白云区新龙归】 已发出 下一站 【广州转运中心】', 'location': ''}, {'time': '2019-09-20 23:06:59', 'ftime': '2019-09-20 23:06:59', 'context': '【广东省广州市白云区新龙归公司】 已打包', 'location': ''}, {'time': '2019-09-20 22:20:25', 'ftime': '2019-09-20 22:20:25', 'context': '【广东省广州市白云区新龙归公司】 已收件 取件人: 雷超 (18933911460)', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.07138899999999999</v>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:52:11', 'ftime': '2019-10-08 06:52:11', 'context': '[东莞市]快件已发车', 'location': '东莞市'}, {'time': '2019-10-08 06:35:04', 'ftime': '2019-10-08 06:35:04', 'context': '[东莞市]快件在【东莞沙田集散中心】已装车,准备发往 【郑州港区中转场】', 'location': '东莞市'}, {'time': '2019-10-08 02:39:06', 'ftime': '2019-10-08 02:39:06', 'context': '[东莞市]快件到达 【东莞沙田集散中心】', 'location': '东莞市'}, {'time': '2019-10-08 01:53:41', 'ftime': '2019-10-08 01:53:41', 'context': '[广州市]快件已发车', 'location': '广州市'}, {'time': '2019-10-08 01:49:20', 'ftime': '2019-10-08 01:49:20', 'context': '[广州市]快件在【广州新塘集散中心】已装车,准备发往 【东莞沙田集散中心】', 'location': '广州市'}, {'time': '2019-10-07 22:01:40', 'ftime': '2019-10-07 22:01:40', 'context': '[广州市]快件到达 【广州新塘集散中心】', 'location': '广州市'}, {'time': '2019-10-07 18:11:42', 'ftime': '2019-10-07 18:11:42', 'context': '[广州市]快件在【广州增城牛仔城营业点】已装车,准备发往 【广州新塘集散中心】', 'location': '广州市'}, {'time': '2019-10-07 18:11:32', 'ftime': '2019-10-07 18:11:32', 'context': '[广州市]顺丰速运 已收取快件', 'location': '广州市'}]}</t>
+        </is>
       </c>
       <c r="J8" s="3" t="n">
+        <v>0.07487199999999999</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -987,22 +978,15 @@
       <c r="G9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.011884</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10" ht="39.95" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -1041,18 +1025,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-02 16:10:59', 'context': '查无结果', 'ftime': '2019-09-02 16:10:59'}]}</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.068645</v>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-04 09:05:49', 'ftime': '2019-10-04 09:05:49', 'context': '【合肥市】 【合肥双凤】 的卢杰（15255144491） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-04 08:35:15', 'ftime': '2019-10-04 08:35:15', 'context': '【合肥市】 快件已经到达 【合肥双凤】', 'location': ''}, {'time': '2019-10-01 17:21:31', 'ftime': '2019-10-01 17:21:31', 'context': '【重庆市】 快件离开 【重庆合川】 已发往 【重庆】', 'location': ''}, {'time': '2019-09-26 10:13:35', 'ftime': '2019-09-26 10:13:35', 'context': '【重庆市】 快件已由【快递超市的移通学院中通】代签收, 如有问题请电联（18184741357 / 18184741357）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-09-26 08:02:10', 'ftime': '2019-09-26 08:02:10', 'context': '【重庆市】 【重庆合川】 的移通学院（18184741357） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-26 08:02:05', 'ftime': '2019-09-26 08:02:05', 'context': '【重庆市】 快件已经到达 【重庆合川】', 'location': ''}, {'time': '2019-09-25 20:46:37', 'ftime': '2019-09-25 20:46:37', 'context': '【重庆市】 快件离开 【重庆】 已发往 【重庆合川】', 'location': ''}, {'time': '2019-09-25 20:39:53', 'ftime': '2019-09-25 20:39:53', 'context': '【重庆市】 快件已经到达 【重庆】', 'location': ''}, {'time': '2019-09-24 23:53:21', 'ftime': '2019-09-24 23:53:21', 'context': '【合肥市】 快件离开 【合肥中转部】 已发往 【重庆】', 'location': ''}, {'time': '2019-09-24 23:51:55', 'ftime': '2019-09-24 23:51:55', 'context': '【合肥市】 快件已经到达 【合肥中转部】', 'location': ''}, {'time': '2019-09-24 19:32:03', 'ftime': '2019-09-24 19:32:03', 'context': '【合肥市】 快件离开 【合肥双凤】 已发往 【重庆】', 'location': ''}, {'time': '2019-09-23 18:51:51', 'ftime': '2019-09-23 18:51:51', 'context': '【合肥市】 【合肥双凤】（0551-63759780、0551-65379790） 的 极米（18856088930） 已揽收', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n">
+        <v>0.071922</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1093,22 +1082,15 @@
       <c r="G11" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.009240999999999999</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" ht="39.95" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
@@ -1156,18 +1138,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 20:50:03', 'ftime': '2019-09-27 20:50:03', 'context': '【2019-09-27 20:50:03】快件在【淮安分拨中心】正发往【徐州市西区S】', 'location': '淮安市'}, {'time': '2019-09-27 06:29:21', 'ftime': '2019-09-27 06:29:21', 'context': '【2019-09-27 06:29:21】快件已到达【淮安分拨中心】', 'location': '淮安市'}, {'time': '2019-09-26 23:28:03', 'ftime': '2019-09-26 23:28:03', 'context': '【2019-09-26 23:28:03】快件在【合肥分拨中心】正发往【淮安分拨中心】', 'location': '合肥市'}, {'time': '2019-09-26 21:55:07', 'ftime': '2019-09-26 21:55:07', 'context': '【2019-09-26 21:55:07】快件已到达【合肥分拨中心】', 'location': '合肥市'}, {'time': '2019-09-26 18:53:49', 'ftime': '2019-09-26 18:53:49', 'context': '【2019-09-26 18:53:49】快件在【长丰县水家湖】正发往【合肥分拨中心】', 'location': '合肥市'}]}</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.080028</v>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-07 16:34:51', 'context': '查无结果', 'ftime': '2019-10-07 16:34:51'}]}</t>
+        </is>
       </c>
       <c r="J12" s="3" t="n">
+        <v>0.064359</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1217,22 +1204,15 @@
       <c r="G13" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.009689</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14" ht="39.95" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
@@ -1280,18 +1260,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 15:22:41', 'ftime': '2019-09-29 15:22:41', 'context': '到达【平阳鳌江】', 'location': '平阳鳌江'}, {'time': '2019-09-29 14:40:48', 'ftime': '2019-09-29 14:40:48', 'context': '离开【平阳分拨中心】,下一站【平阳鳌江】', 'location': '平阳分拨中心'}, {'time': '2019-09-29 07:59:04', 'ftime': '2019-09-29 07:59:04', 'context': '到达【温州市邮件处理中心】', 'location': '温州市邮件处理中心'}, {'time': '2019-09-29 07:00:16', 'ftime': '2019-09-29 07:00:16', 'context': '离开【南航集散】,下一站【温州市邮件处理中心】（经转）', 'location': '南航集散'}, {'time': '2019-09-29 02:18:46', 'ftime': '2019-09-29 02:18:46', 'context': '到达【南航集散】（经转）', 'location': '南航集散'}, {'time': '2019-09-29 00:21:21', 'ftime': '2019-09-29 00:21:21', 'context': '离开【广东航空邮件处理中心】,下一站【南航集散】', 'location': '广东航空邮件处理中心'}, {'time': '2019-09-28 19:03:01', 'ftime': '2019-09-28 19:03:01', 'context': '到达【广东航空邮件处理中心】', 'location': '广东航空邮件处理中心'}, {'time': '2019-09-28 18:44:11', 'ftime': '2019-09-28 18:44:11', 'context': '离开【广州市番禺区市桥】,下一站【广州航站】', 'location': '广州市番禺区市桥'}, {'time': '2019-09-28 15:24:41', 'ftime': '2019-09-28 15:24:41', 'context': '广州市 【广州市番禺区市桥】已收件,揽投员:吴华谦,电话:15902012860', 'location': '广州市番禺区市桥'}]}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.071085</v>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-07 10:41:43', 'ftime': '2019-10-07 10:41:43', 'context': '快件已由绵阳市四川文化艺术学院校内菜鸟驿站代收，请及时取件，如有疑问请联系18009072119', 'location': ''}, {'time': '2019-10-07 09:32:30', 'ftime': '2019-10-07 09:32:30', 'context': '【四川省绵阳市文化艺术学院分部公司】 派件中 派件人: 胡晓琴 电话 18148412437 如有疑问，请联系：13330880154', 'location': ''}, {'time': '2019-10-07 09:27:07', 'ftime': '2019-10-07 09:27:07', 'context': '【四川省绵阳市文化艺术学院分部公司】 已收入', 'location': ''}, {'time': '2019-10-07 08:16:13', 'ftime': '2019-10-07 08:16:13', 'context': '【四川省绵阳市】 已发出 下一站 【四川省绵阳市文化艺术学院分部】', 'location': ''}, {'time': '2019-10-07 08:14:02', 'ftime': '2019-10-07 08:14:02', 'context': '【四川省绵阳市公司】 已收入', 'location': ''}, {'time': '2019-10-07 03:04:41', 'ftime': '2019-10-07 03:04:41', 'context': '【成都转运中心】 已发出 下一站 【四川省绵阳市】', 'location': ''}, {'time': '2019-10-07 02:55:34', 'ftime': '2019-10-07 02:55:34', 'context': '【成都转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-06 15:43:43', 'ftime': '2019-10-06 15:43:43', 'context': '【四川省凉山彝族自治州西昌市】 已发出 下一站 【成都转运中心】', 'location': ''}, {'time': '2019-10-05 17:32:11', 'ftime': '2019-10-05 17:32:11', 'context': '【四川省凉山彝族自治州甘洛县】 已发出 下一站 【四川省凉山彝族自治州西昌市】', 'location': ''}, {'time': '2019-10-05 14:52:56', 'ftime': '2019-10-05 14:52:56', 'context': '【四川省凉山彝族自治州甘洛县公司】 已收件 取件人: 曾秀华 (18521178344)', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J14" s="3" t="n">
+        <v>0.073323</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1332,22 +1317,15 @@
       <c r="G15" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.009417999999999999</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16" ht="39.95" customHeight="1" s="2">
       <c r="A16" s="3" t="n">
@@ -1386,18 +1364,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': 'false', 'condition': 'sorder', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 14:24:42', 'ftime': '2019-09-29 14:24:42', 'context': '已下单【该信息由快递100提供】', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.073397</v>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-02 11:00:00', 'ftime': '2019-10-02 11:00:00', 'context': '青岛口岸,快件正在清关', 'location': ''}, {'time': '2019-09-29 10:00:00', 'ftime': '2019-09-29 10:00:00', 'context': '青岛口岸,航班到达', 'location': ''}, {'time': '2019-09-28 10:00:00', 'ftime': '2019-09-28 10:00:00', 'context': '澳大利亚仓库,航班起飞', 'location': ''}, {'time': '2019-09-24 13:46:21', 'ftime': '2019-09-24 13:46:21', 'context': '澳大利亚仓库,上车扫描', 'location': ''}, {'time': '2019-09-24 13:40:12', 'ftime': '2019-09-24 13:40:12', 'context': '澳大利亚仓库,已收入', 'location': ''}, {'time': '2019-09-23 10:03:29', 'ftime': '2019-09-23 10:03:29', 'context': '澳大利亚仓库,已揽收', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J16" s="3" t="n">
+        <v>0.078946</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1438,22 +1421,15 @@
       <c r="G17" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.009559</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" s="2">
       <c r="A18" s="3" t="n">
@@ -1501,18 +1477,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 14:17:58', 'ftime': '2019-09-28 14:17:58', 'context': '离开【分转中心】,下一站【宣城峄山所】', 'location': None}, {'time': '2019-09-28 11:04:02', 'ftime': '2019-09-28 11:04:02', 'context': '到达【分转中心】', 'location': None}, {'time': '2019-09-28 07:29:03', 'ftime': '2019-09-28 07:29:03', 'context': '离开【合肥中心】,下一站【分转中心】（经转）', 'location': None}, {'time': '2019-09-26 04:50:01', 'ftime': '2019-09-26 04:50:01', 'context': '到达【合肥中心】（经转）', 'location': None}, {'time': '2019-09-25 21:25:39', 'ftime': '2019-09-25 21:25:39', 'context': '离开【上海中心局邮件处理中心】,下一站【合肥中心】（经转）', 'location': None}, {'time': '2019-09-24 18:49:24', 'ftime': '2019-09-24 18:49:24', 'context': '到达【上海中心局邮件处理中心】（经转）', 'location': None}, {'time': '2019-09-24 18:40:06', 'ftime': '2019-09-24 18:40:06', 'context': '离开【邮政黄浦区中国建设银行卡中心邮政服务处】,下一站【上海王港】', 'location': None}, {'time': '2019-09-24 13:56:55', 'ftime': '2019-09-24 13:56:55', 'context': '【建行卡中心服务处】已收件', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.073486</v>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 10:53:58', 'ftime': '2019-10-08 10:53:58', 'context': '快件已在【湖北鄂州分拨中心】进站', 'location': '湖北省-鄂州市-湖北鄂州分拨中心'}, {'time': '2019-10-07 16:00:12', 'ftime': '2019-10-07 16:00:12', 'context': '快件已装车完成，下一站：【湖北恩施集散站】', 'location': '湖北省-恩施土家族苗族自治州-恩施舞阳站'}, {'time': '2019-10-07 15:42:14', 'ftime': '2019-10-07 15:42:14', 'context': '快件已在【恩施舞阳站】揽件入站', 'location': '湖北省-恩施土家族苗族自治州-恩施舞阳站'}, {'time': '2019-10-07 13:41:44', 'ftime': '2019-10-07 13:41:44', 'context': '快件已揽件完成', 'location': '湖北省-恩施土家族苗族自治州-恩施舞阳站'}, {'time': '2019-10-07 13:41:43', 'ftime': '2019-10-07 13:41:43', 'context': '物流订单已创建', 'location': '湖北省-恩施土家族苗族自治州-恩施舞阳站'}]}</t>
+        </is>
       </c>
       <c r="J18" s="3" t="n">
+        <v>0.072699</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1562,26 +1543,32 @@
       <c r="G19" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.010536</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row r="20" ht="39.95" customHeight="1" s="2"/>
     <row r="21" ht="39.95" customHeight="1" s="2"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"K,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>

--- a/data_excel/接口测试用例_ (9).xlsx
+++ b/data_excel/接口测试用例_ (9).xlsx
@@ -607,11 +607,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:27:46', 'ftime': '2019-10-08 06:27:46', 'context': '[河南郑州公司]进行快件扫描，发往：河南郑州公司客运南站分部', 'location': '河南郑州公司'}, {'time': '2019-10-08 02:45:09', 'ftime': '2019-10-08 02:45:09', 'context': '[河南郑州公司]到达目的地网点，快件很快进行派送', 'location': '河南郑州公司'}, {'time': '2019-10-08 02:34:30', 'ftime': '2019-10-08 02:34:30', 'context': '[河南郑州分拨中心]从站点发出，本次转运目的地：河南郑州公司', 'location': '河南郑州分拨中心'}, {'time': '2019-10-08 01:52:41', 'ftime': '2019-10-08 01:52:41', 'context': '[河南郑州分拨中心]在分拨中心进行卸车扫描', 'location': '河南郑州分拨中心'}, {'time': '2019-10-07 00:28:10', 'ftime': '2019-10-07 00:28:10', 'context': '[广东揭阳分拨中心]进行装车扫描，发往：河南郑州分拨中心', 'location': '广东揭阳分拨中心'}, {'time': '2019-10-07 00:21:10', 'ftime': '2019-10-07 00:21:10', 'context': '[广东揭阳分拨中心]在分拨中心进行称重扫描', 'location': '广东揭阳分拨中心'}, {'time': '2019-10-06 21:50:31', 'ftime': '2019-10-06 21:50:31', 'context': '[广东新汕头公司]进行发出扫描，发往：广东揭阳分拨中心', 'location': '广东新汕头公司'}, {'time': '2019-10-06 21:25:48', 'ftime': '2019-10-06 21:25:48', 'context': '[广东新汕头公司]进行下级地点扫描，发往：河南郑州公司', 'location': '广东新汕头公司'}, {'time': '2019-10-06 21:19:46', 'ftime': '2019-10-06 21:19:46', 'context': '[广东新汕头公司]进行揽件扫描', 'location': '广东新汕头公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 05:46:22', 'ftime': '2019-10-08 05:46:22', 'context': '【2019-10-08 05:46:22】快件已到达【蚌埠分拨中心】', 'location': '蚌埠市'}, {'time': '2019-10-07 14:11:48', 'ftime': '2019-10-07 14:11:48', 'context': '【2019-10-07 14:11:48】快件在【合肥分拨中心】正发往【蚌埠分拨中心】', 'location': '合肥市'}, {'time': '2019-10-07 01:28:56', 'ftime': '2019-10-07 01:28:56', 'context': '【2019-10-07 01:28:56】快件已到达【合肥分拨中心】', 'location': '合肥市'}, {'time': '2019-10-05 00:16:52', 'ftime': '2019-10-05 00:16:52', 'context': '【2019-10-05 00:16:52】快件在【青岛分拨中心】正发往【合肥分拨中心】', 'location': '青岛市'}, {'time': '2019-10-04 23:36:26', 'ftime': '2019-10-04 23:36:26', 'context': '【2019-10-04 23:36:26】快件已到达【青岛分拨中心】', 'location': '青岛市'}, {'time': '2019-10-04 19:21:16', 'ftime': '2019-10-04 19:21:16', 'context': '【2019-10-04 19:21:16】快件在【潍坊分拨中心】正发往【青岛分拨中心】', 'location': '潍坊市'}, {'time': '2019-10-02 21:41:13', 'ftime': '2019-10-02 21:41:13', 'context': '【2019-10-02 21:41:13】快件已到达【潍坊分拨中心】', 'location': '潍坊市'}, {'time': '2019-10-02 18:32:39', 'ftime': '2019-10-02 18:32:39', 'context': '【2019-10-02 18:32:39】快件在【山东潍坊临朐】正发往【潍坊分拨中心】', 'location': '潍坊市'}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.069246</v>
+        <v>0.07516299999999999</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -720,11 +720,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 21:56:26', 'ftime': '2019-10-07 21:56:26', 'context': '离开【佛山市邮件处理中心】,下一站【江高中心】', 'location': ''}, {'time': '2019-10-07 06:04:22', 'ftime': '2019-10-07 06:04:22', 'context': '到达【佛山市邮件处理中心】', 'location': ''}, {'time': '2019-10-07 01:03:44', 'ftime': '2019-10-07 01:03:44', 'context': '离开【佛山市电商物流容桂网商】,下一站【佛山中心】', 'location': ''}, {'time': '2019-10-07 00:04:26', 'ftime': '2019-10-07 00:04:26', 'context': '佛山市 【佛山市电商物流容桂网商】已收件,揽投员:陈宏烨,电话:13798628844', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 07:15:30', 'ftime': '2019-10-08 07:15:30', 'context': '离开【武汉中心】,下一站【南宁中心】（经转）', 'location': ''}, {'time': '2019-10-08 02:08:39', 'ftime': '2019-10-08 02:08:39', 'context': '到达【武汉中心】（经转）', 'location': ''}, {'time': '2019-10-07 19:38:44', 'ftime': '2019-10-07 19:38:44', 'context': '离开【邮政十堰市邮件处理中心】,下一站【武汉中心】', 'location': ''}, {'time': '2019-10-07 18:13:18', 'ftime': '2019-10-07 18:13:18', 'context': '到达【邮政十堰市邮件处理中心】', 'location': ''}, {'time': '2019-10-07 18:00:23', 'ftime': '2019-10-07 18:00:23', 'context': '离开【十堰市寄递事业部中心营业部】,下一站【十堰中心】', 'location': ''}, {'time': '2019-10-07 16:14:15', 'ftime': '2019-10-07 16:14:15', 'context': '十堰市 【十堰市寄递事业部中心营业部】已收件,揽投员:何伟,电话:18871911820', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.079481</v>
+        <v>0.077471</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-11 16:34:51', 'context': '查无结果', 'ftime': '2019-09-11 16:34:51'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-05 19:06:41', 'ftime': '2019-10-05 19:06:41', 'context': '[邢台市]已签收,收发室,投递员:张国超X,电话:15713296136', 'location': '邢台市'}, {'time': '2019-10-05 19:05:35', 'ftime': '2019-10-05 19:05:35', 'context': '[邢台市]【清河农村】安排投递,投递员:张国超X,电话:15713296136', 'location': '邢台市'}, {'time': '2019-10-05 14:42:48', 'ftime': '2019-10-05 14:42:48', 'context': '[邢台市]到达【清河农村】', 'location': '邢台市'}, {'time': '2019-10-05 12:59:25', 'ftime': '2019-10-05 12:59:25', 'context': '[邢台市]离开【清河城区】,下一站【清河农村】', 'location': '邢台市'}, {'time': '2019-10-04 21:02:05', 'ftime': '2019-10-04 21:02:05', 'context': '[邢台市]到达【邢台网路运营中心】', 'location': '邢台市'}, {'time': '2019-10-04 18:40:41', 'ftime': '2019-10-04 18:40:41', 'context': '[石家庄市]离开【石家中心】,下一站【邢台网路运营中心】（经转）', 'location': '石家庄市'}, {'time': '2019-10-04 12:38:19', 'ftime': '2019-10-04 12:38:19', 'context': '[石家庄市]到达【石家中心】（经转）', 'location': '石家庄市'}, {'time': '2019-10-03 06:10:56', 'ftime': '2019-10-03 06:10:56', 'context': '[福州市]离开【福州邮件处理中心】,下一站【石家中心】', 'location': '福州市'}, {'time': '2019-10-02 18:41:14', 'ftime': '2019-10-02 18:41:14', 'context': '[福州市]到达【福州邮件处理中心】', 'location': '福州市'}, {'time': '2019-10-02 16:43:53', 'ftime': '2019-10-02 16:43:53', 'context': '[福州市]离开【邮政长乐市邮政函件局】,下一站【福州中心】', 'location': '福州市'}, {'time': '2019-10-02 12:50:31', 'ftime': '2019-10-02 12:50:31', 'context': '[福州市]【长乐市函件局】已收件', 'location': '福州市'}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.064401</v>
+        <v>0.073196</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -928,11 +928,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:52:11', 'ftime': '2019-10-08 06:52:11', 'context': '[东莞市]快件已发车', 'location': '东莞市'}, {'time': '2019-10-08 06:35:04', 'ftime': '2019-10-08 06:35:04', 'context': '[东莞市]快件在【东莞沙田集散中心】已装车,准备发往 【郑州港区中转场】', 'location': '东莞市'}, {'time': '2019-10-08 02:39:06', 'ftime': '2019-10-08 02:39:06', 'context': '[东莞市]快件到达 【东莞沙田集散中心】', 'location': '东莞市'}, {'time': '2019-10-08 01:53:41', 'ftime': '2019-10-08 01:53:41', 'context': '[广州市]快件已发车', 'location': '广州市'}, {'time': '2019-10-08 01:49:20', 'ftime': '2019-10-08 01:49:20', 'context': '[广州市]快件在【广州新塘集散中心】已装车,准备发往 【东莞沙田集散中心】', 'location': '广州市'}, {'time': '2019-10-07 22:01:40', 'ftime': '2019-10-07 22:01:40', 'context': '[广州市]快件到达 【广州新塘集散中心】', 'location': '广州市'}, {'time': '2019-10-07 18:11:42', 'ftime': '2019-10-07 18:11:42', 'context': '[广州市]快件在【广州增城牛仔城营业点】已装车,准备发往 【广州新塘集散中心】', 'location': '广州市'}, {'time': '2019-10-07 18:11:32', 'ftime': '2019-10-07 18:11:32', 'context': '[广州市]顺丰速运 已收取快件', 'location': '广州市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 16:17:38', 'ftime': '2019-10-08 16:17:38', 'context': '[新安支局]在 无锡市 已签收,协议信箱：朱,投递员:蔡巍,电话:17715678306', 'location': '新安支局'}, {'time': '2019-10-08 13:46:04', 'ftime': '2019-10-08 13:46:04', 'context': '【新安支局】安排投递,投递员:蔡巍,电话:17715678306', 'location': '新安支局'}, {'time': '2019-10-08 13:36:31', 'ftime': '2019-10-08 13:36:31', 'context': '到达【新安支局】', 'location': '新安支局'}, {'time': '2019-10-08 12:22:54', 'ftime': '2019-10-08 12:22:54', 'context': '离开【无锡集散】,下一站【新安支局】', 'location': '无锡集散'}, {'time': '2019-10-08 05:15:38', 'ftime': '2019-10-08 05:15:38', 'context': '到达【无锡集散】', 'location': '无锡集散'}, {'time': '2019-10-08 02:25:27', 'ftime': '2019-10-08 02:25:27', 'context': '离开【南京枢纽】,下一站【无锡集散】（经转）', 'location': '南京枢纽'}, {'time': '2019-10-07 17:45:33', 'ftime': '2019-10-07 17:45:33', 'context': '到达【南京枢纽】（经转）', 'location': '南京枢纽'}, {'time': '2019-10-06 18:21:57', 'ftime': '2019-10-06 18:21:57', 'context': '离开【西安中心】,下一站【南京枢纽】（经转）', 'location': '西安中心'}, {'time': '2019-10-06 09:01:49', 'ftime': '2019-10-06 09:01:49', 'context': '到达【西安中心】（经转）', 'location': '西安中心'}, {'time': '2019-10-05 23:09:28', 'ftime': '2019-10-05 23:09:28', 'context': '离开【杨凌包快】,下一站【西安中心】', 'location': '杨凌包快'}, {'time': '2019-10-05 10:52:14', 'ftime': '2019-10-05 10:52:14', 'context': '咸阳市 【杨凌包快】已收件,揽投员:牛路,电话:18717383782', 'location': '杨凌包快'}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.07487199999999999</v>
+        <v>0.06954399999999999</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-04 09:05:49', 'ftime': '2019-10-04 09:05:49', 'context': '【合肥市】 【合肥双凤】 的卢杰（15255144491） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-04 08:35:15', 'ftime': '2019-10-04 08:35:15', 'context': '【合肥市】 快件已经到达 【合肥双凤】', 'location': ''}, {'time': '2019-10-01 17:21:31', 'ftime': '2019-10-01 17:21:31', 'context': '【重庆市】 快件离开 【重庆合川】 已发往 【重庆】', 'location': ''}, {'time': '2019-09-26 10:13:35', 'ftime': '2019-09-26 10:13:35', 'context': '【重庆市】 快件已由【快递超市的移通学院中通】代签收, 如有问题请电联（18184741357 / 18184741357）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-09-26 08:02:10', 'ftime': '2019-09-26 08:02:10', 'context': '【重庆市】 【重庆合川】 的移通学院（18184741357） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-26 08:02:05', 'ftime': '2019-09-26 08:02:05', 'context': '【重庆市】 快件已经到达 【重庆合川】', 'location': ''}, {'time': '2019-09-25 20:46:37', 'ftime': '2019-09-25 20:46:37', 'context': '【重庆市】 快件离开 【重庆】 已发往 【重庆合川】', 'location': ''}, {'time': '2019-09-25 20:39:53', 'ftime': '2019-09-25 20:39:53', 'context': '【重庆市】 快件已经到达 【重庆】', 'location': ''}, {'time': '2019-09-24 23:53:21', 'ftime': '2019-09-24 23:53:21', 'context': '【合肥市】 快件离开 【合肥中转部】 已发往 【重庆】', 'location': ''}, {'time': '2019-09-24 23:51:55', 'ftime': '2019-09-24 23:51:55', 'context': '【合肥市】 快件已经到达 【合肥中转部】', 'location': ''}, {'time': '2019-09-24 19:32:03', 'ftime': '2019-09-24 19:32:03', 'context': '【合肥市】 快件离开 【合肥双凤】 已发往 【重庆】', 'location': ''}, {'time': '2019-09-23 18:51:51', 'ftime': '2019-09-23 18:51:51', 'context': '【合肥市】 【合肥双凤】（0551-63759780、0551-65379790） 的 极米（18856088930） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 15:59:33', 'ftime': '2019-10-08 15:59:33', 'context': '【河南省濮阳市公司】 已收件 取件人: 王相旗 (15670181388)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.071922</v>
+        <v>0.069823</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-07 16:34:51', 'context': '查无结果', 'ftime': '2019-10-07 16:34:51'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-23 16:54:55', 'context': '查无结果', 'ftime': '2019-09-23 16:54:55'}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.064359</v>
+        <v>0.06453200000000001</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1267,11 +1267,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-07 10:41:43', 'ftime': '2019-10-07 10:41:43', 'context': '快件已由绵阳市四川文化艺术学院校内菜鸟驿站代收，请及时取件，如有疑问请联系18009072119', 'location': ''}, {'time': '2019-10-07 09:32:30', 'ftime': '2019-10-07 09:32:30', 'context': '【四川省绵阳市文化艺术学院分部公司】 派件中 派件人: 胡晓琴 电话 18148412437 如有疑问，请联系：13330880154', 'location': ''}, {'time': '2019-10-07 09:27:07', 'ftime': '2019-10-07 09:27:07', 'context': '【四川省绵阳市文化艺术学院分部公司】 已收入', 'location': ''}, {'time': '2019-10-07 08:16:13', 'ftime': '2019-10-07 08:16:13', 'context': '【四川省绵阳市】 已发出 下一站 【四川省绵阳市文化艺术学院分部】', 'location': ''}, {'time': '2019-10-07 08:14:02', 'ftime': '2019-10-07 08:14:02', 'context': '【四川省绵阳市公司】 已收入', 'location': ''}, {'time': '2019-10-07 03:04:41', 'ftime': '2019-10-07 03:04:41', 'context': '【成都转运中心】 已发出 下一站 【四川省绵阳市】', 'location': ''}, {'time': '2019-10-07 02:55:34', 'ftime': '2019-10-07 02:55:34', 'context': '【成都转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-06 15:43:43', 'ftime': '2019-10-06 15:43:43', 'context': '【四川省凉山彝族自治州西昌市】 已发出 下一站 【成都转运中心】', 'location': ''}, {'time': '2019-10-05 17:32:11', 'ftime': '2019-10-05 17:32:11', 'context': '【四川省凉山彝族自治州甘洛县】 已发出 下一站 【四川省凉山彝族自治州西昌市】', 'location': ''}, {'time': '2019-10-05 14:52:56', 'ftime': '2019-10-05 14:52:56', 'context': '【四川省凉山彝族自治州甘洛县公司】 已收件 取件人: 曾秀华 (18521178344)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-02 16:54:56', 'context': '查无结果', 'ftime': '2019-10-02 16:54:56'}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.073323</v>
+        <v>0.066415</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1371,11 +1371,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-02 11:00:00', 'ftime': '2019-10-02 11:00:00', 'context': '青岛口岸,快件正在清关', 'location': ''}, {'time': '2019-09-29 10:00:00', 'ftime': '2019-09-29 10:00:00', 'context': '青岛口岸,航班到达', 'location': ''}, {'time': '2019-09-28 10:00:00', 'ftime': '2019-09-28 10:00:00', 'context': '澳大利亚仓库,航班起飞', 'location': ''}, {'time': '2019-09-24 13:46:21', 'ftime': '2019-09-24 13:46:21', 'context': '澳大利亚仓库,上车扫描', 'location': ''}, {'time': '2019-09-24 13:40:12', 'ftime': '2019-09-24 13:40:12', 'context': '澳大利亚仓库,已收入', 'location': ''}, {'time': '2019-09-23 10:03:29', 'ftime': '2019-09-23 10:03:29', 'context': '澳大利亚仓库,已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:48:02', 'ftime': '2019-10-08 06:48:02', 'context': '【2019-10-08 06:48:02】快件已到达【石家庄分拨中心】', 'location': '石家庄市'}, {'time': '2019-10-07 19:48:17', 'ftime': '2019-10-07 19:48:17', 'context': '【2019-10-07 19:48:17】快件在【廊坊分拨中心】正发往【石家庄分拨中心】', 'location': '廊坊市'}, {'time': '2019-10-07 16:14:04', 'ftime': '2019-10-07 16:14:04', 'context': '【2019-10-07 16:14:04】快件已到达【廊坊分拨中心】', 'location': '廊坊市'}, {'time': '2019-10-06 05:15:32', 'ftime': '2019-10-06 05:15:32', 'context': '【2019-10-06 05:15:32】快件在【成都分拨中心】正发往【廊坊分拨中心】', 'location': '成都市'}, {'time': '2019-10-05 22:00:42', 'ftime': '2019-10-05 22:00:42', 'context': '【2019-10-05 22:00:42】快件已到达【成都分拨中心】', 'location': '成都市'}, {'time': '2019-10-05 18:46:36', 'ftime': '2019-10-05 18:46:36', 'context': '【2019-10-05 18:46:36】快件在【中江S】正发往【成都分拨中心】', 'location': '德阳市'}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.078946</v>
+        <v>0.07209500000000001</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 10:53:58', 'ftime': '2019-10-08 10:53:58', 'context': '快件已在【湖北鄂州分拨中心】进站', 'location': '湖北省-鄂州市-湖北鄂州分拨中心'}, {'time': '2019-10-07 16:00:12', 'ftime': '2019-10-07 16:00:12', 'context': '快件已装车完成，下一站：【湖北恩施集散站】', 'location': '湖北省-恩施土家族苗族自治州-恩施舞阳站'}, {'time': '2019-10-07 15:42:14', 'ftime': '2019-10-07 15:42:14', 'context': '快件已在【恩施舞阳站】揽件入站', 'location': '湖北省-恩施土家族苗族自治州-恩施舞阳站'}, {'time': '2019-10-07 13:41:44', 'ftime': '2019-10-07 13:41:44', 'context': '快件已揽件完成', 'location': '湖北省-恩施土家族苗族自治州-恩施舞阳站'}, {'time': '2019-10-07 13:41:43', 'ftime': '2019-10-07 13:41:43', 'context': '物流订单已创建', 'location': '湖北省-恩施土家族苗族自治州-恩施舞阳站'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 01:56:55', 'ftime': '2019-10-07 01:56:55', 'context': '[泉州市]泉州市【泉州转运中心】，正发往【兰州转运中心】', 'location': '泉州市'}, {'time': '2019-10-07 01:52:52', 'ftime': '2019-10-07 01:52:52', 'context': '[泉州市]到泉州市【泉州转运中心】', 'location': '泉州市'}, {'time': '2019-10-07 00:03:13', 'ftime': '2019-10-07 00:03:13', 'context': '[泉州市]到泉州市【晋江分公司集货点】', 'location': '泉州市'}, {'time': '2019-10-06 23:26:19', 'ftime': '2019-10-06 23:26:19', 'context': '[泉州市]泉州市【晋江分公司】，【操作部03/13328966239】已揽收', 'location': '泉州市'}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.072699</v>
+        <v>0.07230300000000001</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
